--- a/apps/misc/desing/Map card.xlsx
+++ b/apps/misc/desing/Map card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0-work\devs\localpay\apps\misc\desing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C331F-3FA6-43EB-ABE8-D4AB992EB789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E918B-671C-456E-B739-BC40A08A7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="672" windowWidth="23256" windowHeight="12456" xr2:uid="{0A421386-AE57-408E-A566-7941DB4CF5C0}"/>
   </bookViews>
@@ -1044,6 +1044,45 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1071,49 +1110,13 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,6 +1128,60 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,51 +1191,117 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,36 +1309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,130 +1338,37 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5DFE9C-BA66-4CF1-884B-4CE9158723C7}">
   <dimension ref="A1:BQ67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB50" sqref="BB50:BQ52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1907,7 +1907,7 @@
       </c>
     </row>
     <row r="2" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="158">
+      <c r="A2" s="182">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -2018,61 +2018,61 @@
       <c r="AK2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="153" t="s">
+      <c r="AL2" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="154"/>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="155"/>
+      <c r="AM2" s="213"/>
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
       <c r="AP2" s="15" t="s">
         <v>48</v>
       </c>
       <c r="AQ2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="156" t="s">
+      <c r="AR2" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="157"/>
-      <c r="AT2" s="159" t="s">
+      <c r="AS2" s="216"/>
+      <c r="AT2" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="AU2" s="160"/>
-      <c r="AV2" s="160"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
-      <c r="BA2" s="161"/>
-      <c r="BB2" s="153" t="s">
+      <c r="AU2" s="201"/>
+      <c r="AV2" s="201"/>
+      <c r="AW2" s="201"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="201"/>
+      <c r="AZ2" s="201"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="BC2" s="154"/>
-      <c r="BD2" s="154"/>
-      <c r="BE2" s="155"/>
+      <c r="BC2" s="213"/>
+      <c r="BD2" s="213"/>
+      <c r="BE2" s="214"/>
       <c r="BF2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="BG2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="BH2" s="156" t="s">
+      <c r="BH2" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="BI2" s="157"/>
-      <c r="BJ2" s="159" t="s">
+      <c r="BI2" s="216"/>
+      <c r="BJ2" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="BK2" s="160"/>
-      <c r="BL2" s="160"/>
-      <c r="BM2" s="160"/>
-      <c r="BN2" s="160"/>
-      <c r="BO2" s="160"/>
-      <c r="BP2" s="160"/>
-      <c r="BQ2" s="161"/>
+      <c r="BK2" s="201"/>
+      <c r="BL2" s="201"/>
+      <c r="BM2" s="201"/>
+      <c r="BN2" s="201"/>
+      <c r="BO2" s="201"/>
+      <c r="BP2" s="201"/>
+      <c r="BQ2" s="202"/>
     </row>
     <row r="3" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="69">
         <f>B2+1</f>
         <v>1</v>
@@ -2179,48 +2179,48 @@
       <c r="AJ3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AK3" s="138">
+      <c r="AK3" s="139">
         <v>5</v>
       </c>
-      <c r="AL3" s="147" t="s">
+      <c r="AL3" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="AM3" s="148"/>
-      <c r="AN3" s="148"/>
-      <c r="AO3" s="148"/>
-      <c r="AP3" s="148"/>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="148"/>
-      <c r="AT3" s="148"/>
-      <c r="AU3" s="148"/>
-      <c r="AV3" s="148"/>
-      <c r="AW3" s="148"/>
-      <c r="AX3" s="148"/>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="149"/>
-      <c r="BB3" s="147" t="s">
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="144"/>
+      <c r="BB3" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="BC3" s="148"/>
-      <c r="BD3" s="148"/>
-      <c r="BE3" s="148"/>
-      <c r="BF3" s="148"/>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="148"/>
-      <c r="BJ3" s="148"/>
-      <c r="BK3" s="148"/>
-      <c r="BL3" s="148"/>
-      <c r="BM3" s="148"/>
-      <c r="BN3" s="148"/>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="149"/>
+      <c r="BC3" s="143"/>
+      <c r="BD3" s="143"/>
+      <c r="BE3" s="143"/>
+      <c r="BF3" s="143"/>
+      <c r="BG3" s="143"/>
+      <c r="BH3" s="143"/>
+      <c r="BI3" s="143"/>
+      <c r="BJ3" s="143"/>
+      <c r="BK3" s="143"/>
+      <c r="BL3" s="143"/>
+      <c r="BM3" s="143"/>
+      <c r="BN3" s="143"/>
+      <c r="BO3" s="143"/>
+      <c r="BP3" s="143"/>
+      <c r="BQ3" s="144"/>
     </row>
     <row r="4" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="158"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="69">
         <f t="shared" ref="B4:B65" si="0">B3+1</f>
         <v>2</v>
@@ -2328,42 +2328,42 @@
         <f>AJ3</f>
         <v>Not used</v>
       </c>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="150"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="151"/>
-      <c r="AY4" s="151"/>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="152"/>
-      <c r="BB4" s="150"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="151"/>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="151"/>
-      <c r="BO4" s="151"/>
-      <c r="BP4" s="151"/>
-      <c r="BQ4" s="152"/>
+      <c r="AK4" s="140"/>
+      <c r="AL4" s="145"/>
+      <c r="AM4" s="146"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="146"/>
+      <c r="AP4" s="146"/>
+      <c r="AQ4" s="146"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="146"/>
+      <c r="AT4" s="146"/>
+      <c r="AU4" s="146"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="146"/>
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="146"/>
+      <c r="AZ4" s="146"/>
+      <c r="BA4" s="147"/>
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="146"/>
+      <c r="BD4" s="146"/>
+      <c r="BE4" s="146"/>
+      <c r="BF4" s="146"/>
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="146"/>
+      <c r="BI4" s="146"/>
+      <c r="BJ4" s="146"/>
+      <c r="BK4" s="146"/>
+      <c r="BL4" s="146"/>
+      <c r="BM4" s="146"/>
+      <c r="BN4" s="146"/>
+      <c r="BO4" s="146"/>
+      <c r="BP4" s="146"/>
+      <c r="BQ4" s="147"/>
     </row>
     <row r="5" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="158"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="77">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2470,57 +2470,57 @@
       <c r="AJ5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="141" t="s">
+      <c r="AK5" s="141"/>
+      <c r="AL5" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="142"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="142"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="144" t="s">
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="161"/>
+      <c r="AO5" s="161"/>
+      <c r="AP5" s="161"/>
+      <c r="AQ5" s="162"/>
+      <c r="AR5" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="141" t="s">
+      <c r="AS5" s="158"/>
+      <c r="AT5" s="158"/>
+      <c r="AU5" s="159"/>
+      <c r="AV5" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="AW5" s="142"/>
-      <c r="AX5" s="142"/>
-      <c r="AY5" s="142"/>
-      <c r="AZ5" s="142"/>
-      <c r="BA5" s="143"/>
-      <c r="BB5" s="141" t="str">
+      <c r="AW5" s="161"/>
+      <c r="AX5" s="161"/>
+      <c r="AY5" s="161"/>
+      <c r="AZ5" s="161"/>
+      <c r="BA5" s="162"/>
+      <c r="BB5" s="160" t="str">
         <f>AL5</f>
         <v>Key A</v>
       </c>
-      <c r="BC5" s="142"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="143"/>
-      <c r="BH5" s="144" t="str">
+      <c r="BC5" s="161"/>
+      <c r="BD5" s="161"/>
+      <c r="BE5" s="161"/>
+      <c r="BF5" s="161"/>
+      <c r="BG5" s="162"/>
+      <c r="BH5" s="157" t="str">
         <f>AR5</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI5" s="145"/>
-      <c r="BJ5" s="145"/>
-      <c r="BK5" s="146"/>
-      <c r="BL5" s="141" t="str">
+      <c r="BI5" s="158"/>
+      <c r="BJ5" s="158"/>
+      <c r="BK5" s="159"/>
+      <c r="BL5" s="160" t="str">
         <f>AV5</f>
         <v>Key B</v>
       </c>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="142"/>
-      <c r="BO5" s="142"/>
-      <c r="BP5" s="142"/>
-      <c r="BQ5" s="143"/>
+      <c r="BM5" s="161"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="161"/>
+      <c r="BP5" s="161"/>
+      <c r="BQ5" s="162"/>
     </row>
     <row r="6" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="171">
+      <c r="A6" s="181">
         <v>2</v>
       </c>
       <c r="B6" s="29">
@@ -2629,52 +2629,52 @@
       <c r="AJ6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AK6" s="181" t="s">
+      <c r="AK6" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="AL6" s="183" t="s">
+      <c r="AL6" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="AM6" s="184"/>
-      <c r="AN6" s="184"/>
-      <c r="AO6" s="184"/>
-      <c r="AP6" s="184"/>
-      <c r="AQ6" s="184"/>
-      <c r="AR6" s="184"/>
-      <c r="AS6" s="185"/>
-      <c r="AT6" s="186" t="s">
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="166"/>
+      <c r="AO6" s="166"/>
+      <c r="AP6" s="166"/>
+      <c r="AQ6" s="166"/>
+      <c r="AR6" s="166"/>
+      <c r="AS6" s="167"/>
+      <c r="AT6" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="AU6" s="187"/>
-      <c r="AV6" s="187"/>
-      <c r="AW6" s="187"/>
-      <c r="AX6" s="187"/>
-      <c r="AY6" s="187"/>
-      <c r="AZ6" s="187"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="183" t="s">
+      <c r="AU6" s="173"/>
+      <c r="AV6" s="173"/>
+      <c r="AW6" s="173"/>
+      <c r="AX6" s="173"/>
+      <c r="AY6" s="173"/>
+      <c r="AZ6" s="173"/>
+      <c r="BA6" s="174"/>
+      <c r="BB6" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="BC6" s="184"/>
-      <c r="BD6" s="184"/>
-      <c r="BE6" s="184"/>
-      <c r="BF6" s="184"/>
-      <c r="BG6" s="184"/>
-      <c r="BH6" s="184"/>
-      <c r="BI6" s="185"/>
-      <c r="BJ6" s="186" t="s">
+      <c r="BC6" s="166"/>
+      <c r="BD6" s="166"/>
+      <c r="BE6" s="166"/>
+      <c r="BF6" s="166"/>
+      <c r="BG6" s="166"/>
+      <c r="BH6" s="166"/>
+      <c r="BI6" s="167"/>
+      <c r="BJ6" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="BK6" s="187"/>
-      <c r="BL6" s="187"/>
-      <c r="BM6" s="187"/>
-      <c r="BN6" s="187"/>
-      <c r="BO6" s="187"/>
-      <c r="BP6" s="187"/>
-      <c r="BQ6" s="188"/>
+      <c r="BK6" s="173"/>
+      <c r="BL6" s="173"/>
+      <c r="BM6" s="173"/>
+      <c r="BN6" s="173"/>
+      <c r="BO6" s="173"/>
+      <c r="BP6" s="173"/>
+      <c r="BQ6" s="174"/>
     </row>
     <row r="7" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="171"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2782,46 +2782,46 @@
         <f>AJ6</f>
         <v>Wallet</v>
       </c>
-      <c r="AK7" s="181"/>
-      <c r="AL7" s="213" t="s">
+      <c r="AK7" s="193"/>
+      <c r="AL7" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="AM7" s="214"/>
-      <c r="AN7" s="214"/>
-      <c r="AO7" s="214"/>
-      <c r="AP7" s="214"/>
-      <c r="AQ7" s="214"/>
-      <c r="AR7" s="215"/>
-      <c r="AS7" s="135"/>
-      <c r="AT7" s="136"/>
-      <c r="AU7" s="136"/>
-      <c r="AV7" s="136"/>
-      <c r="AW7" s="136"/>
-      <c r="AX7" s="136"/>
-      <c r="AY7" s="136"/>
-      <c r="AZ7" s="136"/>
-      <c r="BA7" s="137"/>
-      <c r="BB7" s="213" t="s">
+      <c r="AM7" s="176"/>
+      <c r="AN7" s="176"/>
+      <c r="AO7" s="176"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="176"/>
+      <c r="AR7" s="177"/>
+      <c r="AS7" s="217"/>
+      <c r="AT7" s="218"/>
+      <c r="AU7" s="218"/>
+      <c r="AV7" s="218"/>
+      <c r="AW7" s="218"/>
+      <c r="AX7" s="218"/>
+      <c r="AY7" s="218"/>
+      <c r="AZ7" s="218"/>
+      <c r="BA7" s="219"/>
+      <c r="BB7" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="BC7" s="214"/>
-      <c r="BD7" s="214"/>
-      <c r="BE7" s="214"/>
-      <c r="BF7" s="214"/>
-      <c r="BG7" s="214"/>
-      <c r="BH7" s="215"/>
-      <c r="BI7" s="135"/>
-      <c r="BJ7" s="136"/>
-      <c r="BK7" s="136"/>
-      <c r="BL7" s="136"/>
-      <c r="BM7" s="136"/>
-      <c r="BN7" s="136"/>
-      <c r="BO7" s="136"/>
-      <c r="BP7" s="136"/>
-      <c r="BQ7" s="137"/>
+      <c r="BC7" s="176"/>
+      <c r="BD7" s="176"/>
+      <c r="BE7" s="176"/>
+      <c r="BF7" s="176"/>
+      <c r="BG7" s="176"/>
+      <c r="BH7" s="177"/>
+      <c r="BI7" s="217"/>
+      <c r="BJ7" s="218"/>
+      <c r="BK7" s="218"/>
+      <c r="BL7" s="218"/>
+      <c r="BM7" s="218"/>
+      <c r="BN7" s="218"/>
+      <c r="BO7" s="218"/>
+      <c r="BP7" s="218"/>
+      <c r="BQ7" s="219"/>
     </row>
     <row r="8" spans="1:69" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="171"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="29">
         <f>B7+1</f>
         <v>6</v>
@@ -2929,42 +2929,42 @@
         <f>AJ7</f>
         <v>Wallet</v>
       </c>
-      <c r="AK8" s="181"/>
-      <c r="AL8" s="132"/>
-      <c r="AM8" s="133"/>
-      <c r="AN8" s="133"/>
-      <c r="AO8" s="133"/>
-      <c r="AP8" s="133"/>
-      <c r="AQ8" s="133"/>
-      <c r="AR8" s="133"/>
-      <c r="AS8" s="133"/>
-      <c r="AT8" s="133"/>
-      <c r="AU8" s="133"/>
-      <c r="AV8" s="133"/>
-      <c r="AW8" s="133"/>
-      <c r="AX8" s="133"/>
-      <c r="AY8" s="133"/>
-      <c r="AZ8" s="133"/>
-      <c r="BA8" s="134"/>
-      <c r="BB8" s="132"/>
-      <c r="BC8" s="133"/>
-      <c r="BD8" s="133"/>
-      <c r="BE8" s="133"/>
-      <c r="BF8" s="133"/>
-      <c r="BG8" s="133"/>
-      <c r="BH8" s="133"/>
-      <c r="BI8" s="133"/>
-      <c r="BJ8" s="133"/>
-      <c r="BK8" s="133"/>
-      <c r="BL8" s="133"/>
-      <c r="BM8" s="133"/>
-      <c r="BN8" s="133"/>
-      <c r="BO8" s="133"/>
-      <c r="BP8" s="133"/>
-      <c r="BQ8" s="134"/>
+      <c r="AK8" s="193"/>
+      <c r="AL8" s="220"/>
+      <c r="AM8" s="221"/>
+      <c r="AN8" s="221"/>
+      <c r="AO8" s="221"/>
+      <c r="AP8" s="221"/>
+      <c r="AQ8" s="221"/>
+      <c r="AR8" s="221"/>
+      <c r="AS8" s="221"/>
+      <c r="AT8" s="221"/>
+      <c r="AU8" s="221"/>
+      <c r="AV8" s="221"/>
+      <c r="AW8" s="221"/>
+      <c r="AX8" s="221"/>
+      <c r="AY8" s="221"/>
+      <c r="AZ8" s="221"/>
+      <c r="BA8" s="222"/>
+      <c r="BB8" s="220"/>
+      <c r="BC8" s="221"/>
+      <c r="BD8" s="221"/>
+      <c r="BE8" s="221"/>
+      <c r="BF8" s="221"/>
+      <c r="BG8" s="221"/>
+      <c r="BH8" s="221"/>
+      <c r="BI8" s="221"/>
+      <c r="BJ8" s="221"/>
+      <c r="BK8" s="221"/>
+      <c r="BL8" s="221"/>
+      <c r="BM8" s="221"/>
+      <c r="BN8" s="221"/>
+      <c r="BO8" s="221"/>
+      <c r="BP8" s="221"/>
+      <c r="BQ8" s="222"/>
     </row>
     <row r="9" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="171"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3071,60 +3071,60 @@
       <c r="AJ9" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AK9" s="182"/>
-      <c r="AL9" s="193" t="str">
+      <c r="AK9" s="194"/>
+      <c r="AL9" s="163" t="str">
         <f>AL5</f>
         <v>Key A</v>
       </c>
-      <c r="AM9" s="193"/>
-      <c r="AN9" s="193"/>
-      <c r="AO9" s="193"/>
-      <c r="AP9" s="193"/>
-      <c r="AQ9" s="194"/>
-      <c r="AR9" s="183" t="str">
+      <c r="AM9" s="163"/>
+      <c r="AN9" s="163"/>
+      <c r="AO9" s="163"/>
+      <c r="AP9" s="163"/>
+      <c r="AQ9" s="164"/>
+      <c r="AR9" s="165" t="str">
         <f>AR5</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS9" s="184"/>
-      <c r="AT9" s="184"/>
-      <c r="AU9" s="185"/>
-      <c r="AV9" s="202" t="str">
+      <c r="AS9" s="166"/>
+      <c r="AT9" s="166"/>
+      <c r="AU9" s="167"/>
+      <c r="AV9" s="168" t="str">
         <f>AV5</f>
         <v>Key B</v>
       </c>
-      <c r="AW9" s="193"/>
-      <c r="AX9" s="193"/>
-      <c r="AY9" s="193"/>
-      <c r="AZ9" s="193"/>
-      <c r="BA9" s="194"/>
-      <c r="BB9" s="172" t="str">
+      <c r="AW9" s="163"/>
+      <c r="AX9" s="163"/>
+      <c r="AY9" s="163"/>
+      <c r="AZ9" s="163"/>
+      <c r="BA9" s="164"/>
+      <c r="BB9" s="203" t="str">
         <f>BB5</f>
         <v>Key A</v>
       </c>
-      <c r="BC9" s="172"/>
-      <c r="BD9" s="172"/>
-      <c r="BE9" s="172"/>
-      <c r="BF9" s="172"/>
-      <c r="BG9" s="173"/>
-      <c r="BH9" s="174" t="str">
+      <c r="BC9" s="203"/>
+      <c r="BD9" s="203"/>
+      <c r="BE9" s="203"/>
+      <c r="BF9" s="203"/>
+      <c r="BG9" s="204"/>
+      <c r="BH9" s="205" t="str">
         <f>BH5</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI9" s="175"/>
-      <c r="BJ9" s="175"/>
-      <c r="BK9" s="176"/>
-      <c r="BL9" s="177" t="str">
+      <c r="BI9" s="206"/>
+      <c r="BJ9" s="206"/>
+      <c r="BK9" s="207"/>
+      <c r="BL9" s="208" t="str">
         <f>BL5</f>
         <v>Key B</v>
       </c>
-      <c r="BM9" s="172"/>
-      <c r="BN9" s="172"/>
-      <c r="BO9" s="172"/>
-      <c r="BP9" s="172"/>
-      <c r="BQ9" s="173"/>
+      <c r="BM9" s="203"/>
+      <c r="BN9" s="203"/>
+      <c r="BO9" s="203"/>
+      <c r="BP9" s="203"/>
+      <c r="BQ9" s="204"/>
     </row>
     <row r="10" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="158">
+      <c r="A10" s="182">
         <v>3</v>
       </c>
       <c r="B10" s="52">
@@ -3233,52 +3233,52 @@
       <c r="AJ10" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AK10" s="178" t="s">
+      <c r="AK10" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="AL10" s="216" t="s">
+      <c r="AL10" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="AM10" s="217"/>
-      <c r="AN10" s="218"/>
-      <c r="AO10" s="209" t="s">
+      <c r="AM10" s="196"/>
+      <c r="AN10" s="197"/>
+      <c r="AO10" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AP10" s="210"/>
-      <c r="AQ10" s="210"/>
-      <c r="AR10" s="210"/>
-      <c r="AS10" s="210"/>
-      <c r="AT10" s="210"/>
-      <c r="AU10" s="211"/>
-      <c r="AV10" s="129"/>
-      <c r="AW10" s="130"/>
-      <c r="AX10" s="130"/>
-      <c r="AY10" s="130"/>
-      <c r="AZ10" s="130"/>
-      <c r="BA10" s="131"/>
-      <c r="BB10" s="209" t="s">
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="115"/>
+      <c r="AT10" s="115"/>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="117"/>
+      <c r="AW10" s="118"/>
+      <c r="AX10" s="118"/>
+      <c r="AY10" s="118"/>
+      <c r="AZ10" s="118"/>
+      <c r="BA10" s="119"/>
+      <c r="BB10" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="BC10" s="210"/>
-      <c r="BD10" s="211"/>
-      <c r="BE10" s="209" t="s">
+      <c r="BC10" s="115"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="BF10" s="210"/>
-      <c r="BG10" s="210"/>
-      <c r="BH10" s="210"/>
-      <c r="BI10" s="210"/>
-      <c r="BJ10" s="210"/>
-      <c r="BK10" s="211"/>
-      <c r="BL10" s="129"/>
-      <c r="BM10" s="130"/>
-      <c r="BN10" s="130"/>
-      <c r="BO10" s="130"/>
-      <c r="BP10" s="130"/>
-      <c r="BQ10" s="131"/>
+      <c r="BF10" s="115"/>
+      <c r="BG10" s="115"/>
+      <c r="BH10" s="115"/>
+      <c r="BI10" s="115"/>
+      <c r="BJ10" s="115"/>
+      <c r="BK10" s="116"/>
+      <c r="BL10" s="117"/>
+      <c r="BM10" s="118"/>
+      <c r="BN10" s="118"/>
+      <c r="BO10" s="118"/>
+      <c r="BP10" s="118"/>
+      <c r="BQ10" s="119"/>
     </row>
     <row r="11" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="158"/>
+      <c r="A11" s="182"/>
       <c r="B11" s="52">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3386,42 +3386,42 @@
         <f>AJ10</f>
         <v>Meta data</v>
       </c>
-      <c r="AK11" s="179"/>
-      <c r="AL11" s="123"/>
-      <c r="AM11" s="124"/>
-      <c r="AN11" s="124"/>
-      <c r="AO11" s="124"/>
-      <c r="AP11" s="124"/>
-      <c r="AQ11" s="124"/>
-      <c r="AR11" s="124"/>
-      <c r="AS11" s="124"/>
-      <c r="AT11" s="124"/>
-      <c r="AU11" s="124"/>
-      <c r="AV11" s="124"/>
-      <c r="AW11" s="124"/>
-      <c r="AX11" s="124"/>
-      <c r="AY11" s="124"/>
-      <c r="AZ11" s="124"/>
-      <c r="BA11" s="125"/>
-      <c r="BB11" s="123"/>
-      <c r="BC11" s="124"/>
-      <c r="BD11" s="124"/>
-      <c r="BE11" s="124"/>
-      <c r="BF11" s="124"/>
-      <c r="BG11" s="124"/>
-      <c r="BH11" s="124"/>
-      <c r="BI11" s="124"/>
-      <c r="BJ11" s="124"/>
-      <c r="BK11" s="124"/>
-      <c r="BL11" s="124"/>
-      <c r="BM11" s="124"/>
-      <c r="BN11" s="124"/>
-      <c r="BO11" s="124"/>
-      <c r="BP11" s="124"/>
-      <c r="BQ11" s="125"/>
+      <c r="AK11" s="210"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="121"/>
+      <c r="AT11" s="121"/>
+      <c r="AU11" s="121"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="121"/>
+      <c r="AX11" s="121"/>
+      <c r="AY11" s="121"/>
+      <c r="AZ11" s="121"/>
+      <c r="BA11" s="122"/>
+      <c r="BB11" s="120"/>
+      <c r="BC11" s="121"/>
+      <c r="BD11" s="121"/>
+      <c r="BE11" s="121"/>
+      <c r="BF11" s="121"/>
+      <c r="BG11" s="121"/>
+      <c r="BH11" s="121"/>
+      <c r="BI11" s="121"/>
+      <c r="BJ11" s="121"/>
+      <c r="BK11" s="121"/>
+      <c r="BL11" s="121"/>
+      <c r="BM11" s="121"/>
+      <c r="BN11" s="121"/>
+      <c r="BO11" s="121"/>
+      <c r="BP11" s="121"/>
+      <c r="BQ11" s="122"/>
     </row>
     <row r="12" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="158"/>
+      <c r="A12" s="182"/>
       <c r="B12" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3529,42 +3529,42 @@
         <f>AJ11</f>
         <v>Meta data</v>
       </c>
-      <c r="AK12" s="179"/>
-      <c r="AL12" s="126"/>
-      <c r="AM12" s="127"/>
-      <c r="AN12" s="127"/>
-      <c r="AO12" s="127"/>
-      <c r="AP12" s="127"/>
-      <c r="AQ12" s="127"/>
-      <c r="AR12" s="127"/>
-      <c r="AS12" s="127"/>
-      <c r="AT12" s="127"/>
-      <c r="AU12" s="127"/>
-      <c r="AV12" s="127"/>
-      <c r="AW12" s="127"/>
-      <c r="AX12" s="127"/>
-      <c r="AY12" s="127"/>
-      <c r="AZ12" s="127"/>
-      <c r="BA12" s="128"/>
-      <c r="BB12" s="126"/>
-      <c r="BC12" s="127"/>
-      <c r="BD12" s="127"/>
-      <c r="BE12" s="127"/>
-      <c r="BF12" s="127"/>
-      <c r="BG12" s="127"/>
-      <c r="BH12" s="127"/>
-      <c r="BI12" s="127"/>
-      <c r="BJ12" s="127"/>
-      <c r="BK12" s="127"/>
-      <c r="BL12" s="127"/>
-      <c r="BM12" s="127"/>
-      <c r="BN12" s="127"/>
-      <c r="BO12" s="127"/>
-      <c r="BP12" s="127"/>
-      <c r="BQ12" s="128"/>
+      <c r="AK12" s="210"/>
+      <c r="AL12" s="123"/>
+      <c r="AM12" s="124"/>
+      <c r="AN12" s="124"/>
+      <c r="AO12" s="124"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="124"/>
+      <c r="AS12" s="124"/>
+      <c r="AT12" s="124"/>
+      <c r="AU12" s="124"/>
+      <c r="AV12" s="124"/>
+      <c r="AW12" s="124"/>
+      <c r="AX12" s="124"/>
+      <c r="AY12" s="124"/>
+      <c r="AZ12" s="124"/>
+      <c r="BA12" s="125"/>
+      <c r="BB12" s="123"/>
+      <c r="BC12" s="124"/>
+      <c r="BD12" s="124"/>
+      <c r="BE12" s="124"/>
+      <c r="BF12" s="124"/>
+      <c r="BG12" s="124"/>
+      <c r="BH12" s="124"/>
+      <c r="BI12" s="124"/>
+      <c r="BJ12" s="124"/>
+      <c r="BK12" s="124"/>
+      <c r="BL12" s="124"/>
+      <c r="BM12" s="124"/>
+      <c r="BN12" s="124"/>
+      <c r="BO12" s="124"/>
+      <c r="BP12" s="124"/>
+      <c r="BQ12" s="125"/>
     </row>
     <row r="13" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="158"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="61">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3671,60 +3671,60 @@
       <c r="AJ13" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AK13" s="180"/>
-      <c r="AL13" s="206" t="str">
+      <c r="AK13" s="211"/>
+      <c r="AL13" s="169" t="str">
         <f>AL9</f>
         <v>Key A</v>
       </c>
-      <c r="AM13" s="207"/>
-      <c r="AN13" s="207"/>
-      <c r="AO13" s="207"/>
-      <c r="AP13" s="207"/>
-      <c r="AQ13" s="208"/>
-      <c r="AR13" s="209" t="str">
+      <c r="AM13" s="170"/>
+      <c r="AN13" s="170"/>
+      <c r="AO13" s="170"/>
+      <c r="AP13" s="170"/>
+      <c r="AQ13" s="171"/>
+      <c r="AR13" s="114" t="str">
         <f>AR9</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS13" s="210"/>
-      <c r="AT13" s="210"/>
-      <c r="AU13" s="211"/>
-      <c r="AV13" s="206" t="str">
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="169" t="str">
         <f>AV9</f>
         <v>Key B</v>
       </c>
-      <c r="AW13" s="207"/>
-      <c r="AX13" s="207"/>
-      <c r="AY13" s="207"/>
-      <c r="AZ13" s="207"/>
-      <c r="BA13" s="208"/>
-      <c r="BB13" s="165" t="str">
+      <c r="AW13" s="170"/>
+      <c r="AX13" s="170"/>
+      <c r="AY13" s="170"/>
+      <c r="AZ13" s="170"/>
+      <c r="BA13" s="171"/>
+      <c r="BB13" s="186" t="str">
         <f>BB9</f>
         <v>Key A</v>
       </c>
-      <c r="BC13" s="166"/>
-      <c r="BD13" s="166"/>
-      <c r="BE13" s="166"/>
-      <c r="BF13" s="166"/>
-      <c r="BG13" s="167"/>
-      <c r="BH13" s="168" t="str">
+      <c r="BC13" s="187"/>
+      <c r="BD13" s="187"/>
+      <c r="BE13" s="187"/>
+      <c r="BF13" s="187"/>
+      <c r="BG13" s="188"/>
+      <c r="BH13" s="189" t="str">
         <f>BH9</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI13" s="169"/>
-      <c r="BJ13" s="169"/>
-      <c r="BK13" s="170"/>
-      <c r="BL13" s="165" t="str">
+      <c r="BI13" s="190"/>
+      <c r="BJ13" s="190"/>
+      <c r="BK13" s="191"/>
+      <c r="BL13" s="186" t="str">
         <f>BL9</f>
         <v>Key B</v>
       </c>
-      <c r="BM13" s="166"/>
-      <c r="BN13" s="166"/>
-      <c r="BO13" s="166"/>
-      <c r="BP13" s="166"/>
-      <c r="BQ13" s="167"/>
+      <c r="BM13" s="187"/>
+      <c r="BN13" s="187"/>
+      <c r="BO13" s="187"/>
+      <c r="BP13" s="187"/>
+      <c r="BQ13" s="188"/>
     </row>
     <row r="14" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="171">
+      <c r="A14" s="181">
         <v>4</v>
       </c>
       <c r="B14" s="69">
@@ -3833,48 +3833,48 @@
       <c r="AJ14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AK14" s="195" t="s">
+      <c r="AK14" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="AL14" s="189" t="s">
+      <c r="AL14" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="AM14" s="190"/>
-      <c r="AN14" s="190"/>
-      <c r="AO14" s="190"/>
-      <c r="AP14" s="190"/>
-      <c r="AQ14" s="190"/>
-      <c r="AR14" s="191"/>
-      <c r="AS14" s="192"/>
-      <c r="AT14" s="114"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
-      <c r="AX14" s="115"/>
-      <c r="AY14" s="115"/>
-      <c r="AZ14" s="115"/>
-      <c r="BA14" s="116"/>
-      <c r="BB14" s="189" t="s">
+      <c r="AM14" s="155"/>
+      <c r="AN14" s="155"/>
+      <c r="AO14" s="155"/>
+      <c r="AP14" s="155"/>
+      <c r="AQ14" s="155"/>
+      <c r="AR14" s="198"/>
+      <c r="AS14" s="199"/>
+      <c r="AT14" s="127"/>
+      <c r="AU14" s="128"/>
+      <c r="AV14" s="128"/>
+      <c r="AW14" s="128"/>
+      <c r="AX14" s="128"/>
+      <c r="AY14" s="128"/>
+      <c r="AZ14" s="128"/>
+      <c r="BA14" s="129"/>
+      <c r="BB14" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="BC14" s="190"/>
-      <c r="BD14" s="190"/>
-      <c r="BE14" s="190"/>
-      <c r="BF14" s="190"/>
-      <c r="BG14" s="190"/>
-      <c r="BH14" s="190"/>
-      <c r="BI14" s="201"/>
-      <c r="BJ14" s="114"/>
-      <c r="BK14" s="115"/>
-      <c r="BL14" s="115"/>
-      <c r="BM14" s="115"/>
-      <c r="BN14" s="115"/>
-      <c r="BO14" s="115"/>
-      <c r="BP14" s="115"/>
-      <c r="BQ14" s="116"/>
+      <c r="BC14" s="155"/>
+      <c r="BD14" s="155"/>
+      <c r="BE14" s="155"/>
+      <c r="BF14" s="155"/>
+      <c r="BG14" s="155"/>
+      <c r="BH14" s="155"/>
+      <c r="BI14" s="156"/>
+      <c r="BJ14" s="127"/>
+      <c r="BK14" s="128"/>
+      <c r="BL14" s="128"/>
+      <c r="BM14" s="128"/>
+      <c r="BN14" s="128"/>
+      <c r="BO14" s="128"/>
+      <c r="BP14" s="128"/>
+      <c r="BQ14" s="129"/>
     </row>
     <row r="15" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="171"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="69">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3982,46 +3982,46 @@
         <f>AJ14</f>
         <v>Not used</v>
       </c>
-      <c r="AK15" s="196"/>
-      <c r="AL15" s="117" t="s">
+      <c r="AK15" s="152"/>
+      <c r="AL15" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="119"/>
-      <c r="BB15" s="117" t="s">
+      <c r="AM15" s="131"/>
+      <c r="AN15" s="131"/>
+      <c r="AO15" s="131"/>
+      <c r="AP15" s="131"/>
+      <c r="AQ15" s="131"/>
+      <c r="AR15" s="131"/>
+      <c r="AS15" s="131"/>
+      <c r="AT15" s="131"/>
+      <c r="AU15" s="131"/>
+      <c r="AV15" s="131"/>
+      <c r="AW15" s="131"/>
+      <c r="AX15" s="131"/>
+      <c r="AY15" s="131"/>
+      <c r="AZ15" s="131"/>
+      <c r="BA15" s="132"/>
+      <c r="BB15" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="BC15" s="118"/>
-      <c r="BD15" s="118"/>
-      <c r="BE15" s="118"/>
-      <c r="BF15" s="118"/>
-      <c r="BG15" s="118"/>
-      <c r="BH15" s="118"/>
-      <c r="BI15" s="118"/>
-      <c r="BJ15" s="118"/>
-      <c r="BK15" s="118"/>
-      <c r="BL15" s="118"/>
-      <c r="BM15" s="118"/>
-      <c r="BN15" s="118"/>
-      <c r="BO15" s="118"/>
-      <c r="BP15" s="118"/>
-      <c r="BQ15" s="119"/>
+      <c r="BC15" s="131"/>
+      <c r="BD15" s="131"/>
+      <c r="BE15" s="131"/>
+      <c r="BF15" s="131"/>
+      <c r="BG15" s="131"/>
+      <c r="BH15" s="131"/>
+      <c r="BI15" s="131"/>
+      <c r="BJ15" s="131"/>
+      <c r="BK15" s="131"/>
+      <c r="BL15" s="131"/>
+      <c r="BM15" s="131"/>
+      <c r="BN15" s="131"/>
+      <c r="BO15" s="131"/>
+      <c r="BP15" s="131"/>
+      <c r="BQ15" s="132"/>
     </row>
     <row r="16" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="171"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="69">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4129,42 +4129,42 @@
         <f>AJ15</f>
         <v>Not used</v>
       </c>
-      <c r="AK16" s="196"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="122"/>
-      <c r="BB16" s="120"/>
-      <c r="BC16" s="121"/>
-      <c r="BD16" s="121"/>
-      <c r="BE16" s="121"/>
-      <c r="BF16" s="121"/>
-      <c r="BG16" s="121"/>
-      <c r="BH16" s="121"/>
-      <c r="BI16" s="121"/>
-      <c r="BJ16" s="121"/>
-      <c r="BK16" s="121"/>
-      <c r="BL16" s="121"/>
-      <c r="BM16" s="121"/>
-      <c r="BN16" s="121"/>
-      <c r="BO16" s="121"/>
-      <c r="BP16" s="121"/>
-      <c r="BQ16" s="122"/>
+      <c r="AK16" s="152"/>
+      <c r="AL16" s="133"/>
+      <c r="AM16" s="134"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="134"/>
+      <c r="AP16" s="134"/>
+      <c r="AQ16" s="134"/>
+      <c r="AR16" s="134"/>
+      <c r="AS16" s="134"/>
+      <c r="AT16" s="134"/>
+      <c r="AU16" s="134"/>
+      <c r="AV16" s="134"/>
+      <c r="AW16" s="134"/>
+      <c r="AX16" s="134"/>
+      <c r="AY16" s="134"/>
+      <c r="AZ16" s="134"/>
+      <c r="BA16" s="135"/>
+      <c r="BB16" s="133"/>
+      <c r="BC16" s="134"/>
+      <c r="BD16" s="134"/>
+      <c r="BE16" s="134"/>
+      <c r="BF16" s="134"/>
+      <c r="BG16" s="134"/>
+      <c r="BH16" s="134"/>
+      <c r="BI16" s="134"/>
+      <c r="BJ16" s="134"/>
+      <c r="BK16" s="134"/>
+      <c r="BL16" s="134"/>
+      <c r="BM16" s="134"/>
+      <c r="BN16" s="134"/>
+      <c r="BO16" s="134"/>
+      <c r="BP16" s="134"/>
+      <c r="BQ16" s="135"/>
     </row>
     <row r="17" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="171"/>
+      <c r="A17" s="181"/>
       <c r="B17" s="77">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4271,60 +4271,60 @@
       <c r="AJ17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AK17" s="197"/>
-      <c r="AL17" s="198" t="str">
+      <c r="AK17" s="153"/>
+      <c r="AL17" s="136" t="str">
         <f>AL13</f>
         <v>Key A</v>
       </c>
-      <c r="AM17" s="199"/>
-      <c r="AN17" s="199"/>
-      <c r="AO17" s="199"/>
-      <c r="AP17" s="199"/>
-      <c r="AQ17" s="200"/>
-      <c r="AR17" s="189" t="str">
+      <c r="AM17" s="137"/>
+      <c r="AN17" s="137"/>
+      <c r="AO17" s="137"/>
+      <c r="AP17" s="137"/>
+      <c r="AQ17" s="138"/>
+      <c r="AR17" s="154" t="str">
         <f>AR13</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS17" s="190"/>
-      <c r="AT17" s="190"/>
-      <c r="AU17" s="201"/>
-      <c r="AV17" s="198" t="str">
+      <c r="AS17" s="155"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="156"/>
+      <c r="AV17" s="136" t="str">
         <f>AV13</f>
         <v>Key B</v>
       </c>
-      <c r="AW17" s="199"/>
-      <c r="AX17" s="199"/>
-      <c r="AY17" s="199"/>
-      <c r="AZ17" s="199"/>
-      <c r="BA17" s="200"/>
-      <c r="BB17" s="198" t="str">
+      <c r="AW17" s="137"/>
+      <c r="AX17" s="137"/>
+      <c r="AY17" s="137"/>
+      <c r="AZ17" s="137"/>
+      <c r="BA17" s="138"/>
+      <c r="BB17" s="136" t="str">
         <f>BB13</f>
         <v>Key A</v>
       </c>
-      <c r="BC17" s="199"/>
-      <c r="BD17" s="199"/>
-      <c r="BE17" s="199"/>
-      <c r="BF17" s="199"/>
-      <c r="BG17" s="200"/>
-      <c r="BH17" s="189" t="str">
+      <c r="BC17" s="137"/>
+      <c r="BD17" s="137"/>
+      <c r="BE17" s="137"/>
+      <c r="BF17" s="137"/>
+      <c r="BG17" s="138"/>
+      <c r="BH17" s="154" t="str">
         <f>BH13</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI17" s="190"/>
-      <c r="BJ17" s="190"/>
-      <c r="BK17" s="201"/>
-      <c r="BL17" s="198" t="str">
+      <c r="BI17" s="155"/>
+      <c r="BJ17" s="155"/>
+      <c r="BK17" s="156"/>
+      <c r="BL17" s="136" t="str">
         <f>BL13</f>
         <v>Key B</v>
       </c>
-      <c r="BM17" s="199"/>
-      <c r="BN17" s="199"/>
-      <c r="BO17" s="199"/>
-      <c r="BP17" s="199"/>
-      <c r="BQ17" s="200"/>
+      <c r="BM17" s="137"/>
+      <c r="BN17" s="137"/>
+      <c r="BO17" s="137"/>
+      <c r="BP17" s="137"/>
+      <c r="BQ17" s="138"/>
     </row>
     <row r="18" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="158">
+      <c r="A18" s="182">
         <v>5</v>
       </c>
       <c r="B18" s="69">
@@ -4433,49 +4433,49 @@
       <c r="AJ18" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AK18" s="138">
+      <c r="AK18" s="139">
         <v>1</v>
       </c>
-      <c r="AL18" s="162" t="str">
+      <c r="AL18" s="178" t="str">
         <f>AL3</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM18" s="163"/>
-      <c r="AN18" s="163"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="163"/>
-      <c r="AS18" s="163"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="163"/>
-      <c r="AX18" s="163"/>
-      <c r="AY18" s="163"/>
-      <c r="AZ18" s="163"/>
-      <c r="BA18" s="163"/>
-      <c r="BB18" s="162" t="s">
+      <c r="AM18" s="179"/>
+      <c r="AN18" s="179"/>
+      <c r="AO18" s="179"/>
+      <c r="AP18" s="179"/>
+      <c r="AQ18" s="179"/>
+      <c r="AR18" s="179"/>
+      <c r="AS18" s="179"/>
+      <c r="AT18" s="179"/>
+      <c r="AU18" s="179"/>
+      <c r="AV18" s="179"/>
+      <c r="AW18" s="179"/>
+      <c r="AX18" s="179"/>
+      <c r="AY18" s="179"/>
+      <c r="AZ18" s="179"/>
+      <c r="BA18" s="179"/>
+      <c r="BB18" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="BC18" s="163"/>
-      <c r="BD18" s="163"/>
-      <c r="BE18" s="163"/>
-      <c r="BF18" s="163"/>
-      <c r="BG18" s="163"/>
-      <c r="BH18" s="163"/>
-      <c r="BI18" s="163"/>
-      <c r="BJ18" s="163"/>
-      <c r="BK18" s="163"/>
-      <c r="BL18" s="163"/>
-      <c r="BM18" s="163"/>
-      <c r="BN18" s="163"/>
-      <c r="BO18" s="163"/>
-      <c r="BP18" s="163"/>
-      <c r="BQ18" s="163"/>
+      <c r="BC18" s="179"/>
+      <c r="BD18" s="179"/>
+      <c r="BE18" s="179"/>
+      <c r="BF18" s="179"/>
+      <c r="BG18" s="179"/>
+      <c r="BH18" s="179"/>
+      <c r="BI18" s="179"/>
+      <c r="BJ18" s="179"/>
+      <c r="BK18" s="179"/>
+      <c r="BL18" s="179"/>
+      <c r="BM18" s="179"/>
+      <c r="BN18" s="179"/>
+      <c r="BO18" s="179"/>
+      <c r="BP18" s="179"/>
+      <c r="BQ18" s="179"/>
     </row>
     <row r="19" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="69">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4583,42 +4583,42 @@
         <f>AJ18</f>
         <v>Personal Block2</v>
       </c>
-      <c r="AK19" s="139"/>
-      <c r="AL19" s="147"/>
-      <c r="AM19" s="164"/>
-      <c r="AN19" s="164"/>
-      <c r="AO19" s="164"/>
-      <c r="AP19" s="164"/>
-      <c r="AQ19" s="164"/>
-      <c r="AR19" s="164"/>
-      <c r="AS19" s="164"/>
-      <c r="AT19" s="164"/>
-      <c r="AU19" s="164"/>
-      <c r="AV19" s="164"/>
-      <c r="AW19" s="164"/>
-      <c r="AX19" s="164"/>
-      <c r="AY19" s="164"/>
-      <c r="AZ19" s="164"/>
-      <c r="BA19" s="164"/>
-      <c r="BB19" s="147"/>
-      <c r="BC19" s="164"/>
-      <c r="BD19" s="164"/>
-      <c r="BE19" s="164"/>
-      <c r="BF19" s="164"/>
-      <c r="BG19" s="164"/>
-      <c r="BH19" s="164"/>
-      <c r="BI19" s="164"/>
-      <c r="BJ19" s="164"/>
-      <c r="BK19" s="164"/>
-      <c r="BL19" s="164"/>
-      <c r="BM19" s="164"/>
-      <c r="BN19" s="164"/>
-      <c r="BO19" s="164"/>
-      <c r="BP19" s="164"/>
-      <c r="BQ19" s="164"/>
+      <c r="AK19" s="140"/>
+      <c r="AL19" s="142"/>
+      <c r="AM19" s="180"/>
+      <c r="AN19" s="180"/>
+      <c r="AO19" s="180"/>
+      <c r="AP19" s="180"/>
+      <c r="AQ19" s="180"/>
+      <c r="AR19" s="180"/>
+      <c r="AS19" s="180"/>
+      <c r="AT19" s="180"/>
+      <c r="AU19" s="180"/>
+      <c r="AV19" s="180"/>
+      <c r="AW19" s="180"/>
+      <c r="AX19" s="180"/>
+      <c r="AY19" s="180"/>
+      <c r="AZ19" s="180"/>
+      <c r="BA19" s="180"/>
+      <c r="BB19" s="142"/>
+      <c r="BC19" s="180"/>
+      <c r="BD19" s="180"/>
+      <c r="BE19" s="180"/>
+      <c r="BF19" s="180"/>
+      <c r="BG19" s="180"/>
+      <c r="BH19" s="180"/>
+      <c r="BI19" s="180"/>
+      <c r="BJ19" s="180"/>
+      <c r="BK19" s="180"/>
+      <c r="BL19" s="180"/>
+      <c r="BM19" s="180"/>
+      <c r="BN19" s="180"/>
+      <c r="BO19" s="180"/>
+      <c r="BP19" s="180"/>
+      <c r="BQ19" s="180"/>
     </row>
     <row r="20" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="158"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="69">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4726,42 +4726,42 @@
         <f>AJ19</f>
         <v>Personal Block2</v>
       </c>
-      <c r="AK20" s="139"/>
-      <c r="AL20" s="150"/>
-      <c r="AM20" s="151"/>
-      <c r="AN20" s="151"/>
-      <c r="AO20" s="151"/>
-      <c r="AP20" s="151"/>
-      <c r="AQ20" s="151"/>
-      <c r="AR20" s="151"/>
-      <c r="AS20" s="151"/>
-      <c r="AT20" s="151"/>
-      <c r="AU20" s="151"/>
-      <c r="AV20" s="151"/>
-      <c r="AW20" s="151"/>
-      <c r="AX20" s="151"/>
-      <c r="AY20" s="151"/>
-      <c r="AZ20" s="151"/>
-      <c r="BA20" s="151"/>
-      <c r="BB20" s="150"/>
-      <c r="BC20" s="151"/>
-      <c r="BD20" s="151"/>
-      <c r="BE20" s="151"/>
-      <c r="BF20" s="151"/>
-      <c r="BG20" s="151"/>
-      <c r="BH20" s="151"/>
-      <c r="BI20" s="151"/>
-      <c r="BJ20" s="151"/>
-      <c r="BK20" s="151"/>
-      <c r="BL20" s="151"/>
-      <c r="BM20" s="151"/>
-      <c r="BN20" s="151"/>
-      <c r="BO20" s="151"/>
-      <c r="BP20" s="151"/>
-      <c r="BQ20" s="151"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="145"/>
+      <c r="AM20" s="146"/>
+      <c r="AN20" s="146"/>
+      <c r="AO20" s="146"/>
+      <c r="AP20" s="146"/>
+      <c r="AQ20" s="146"/>
+      <c r="AR20" s="146"/>
+      <c r="AS20" s="146"/>
+      <c r="AT20" s="146"/>
+      <c r="AU20" s="146"/>
+      <c r="AV20" s="146"/>
+      <c r="AW20" s="146"/>
+      <c r="AX20" s="146"/>
+      <c r="AY20" s="146"/>
+      <c r="AZ20" s="146"/>
+      <c r="BA20" s="146"/>
+      <c r="BB20" s="145"/>
+      <c r="BC20" s="146"/>
+      <c r="BD20" s="146"/>
+      <c r="BE20" s="146"/>
+      <c r="BF20" s="146"/>
+      <c r="BG20" s="146"/>
+      <c r="BH20" s="146"/>
+      <c r="BI20" s="146"/>
+      <c r="BJ20" s="146"/>
+      <c r="BK20" s="146"/>
+      <c r="BL20" s="146"/>
+      <c r="BM20" s="146"/>
+      <c r="BN20" s="146"/>
+      <c r="BO20" s="146"/>
+      <c r="BP20" s="146"/>
+      <c r="BQ20" s="146"/>
     </row>
     <row r="21" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="158"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="77">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4868,60 +4868,60 @@
       <c r="AJ21" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK21" s="140"/>
-      <c r="AL21" s="141" t="str">
+      <c r="AK21" s="141"/>
+      <c r="AL21" s="160" t="str">
         <f>AL17</f>
         <v>Key A</v>
       </c>
-      <c r="AM21" s="142"/>
-      <c r="AN21" s="142"/>
-      <c r="AO21" s="142"/>
-      <c r="AP21" s="142"/>
-      <c r="AQ21" s="143"/>
-      <c r="AR21" s="144" t="str">
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="161"/>
+      <c r="AO21" s="161"/>
+      <c r="AP21" s="161"/>
+      <c r="AQ21" s="162"/>
+      <c r="AR21" s="157" t="str">
         <f>AR17</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS21" s="145"/>
-      <c r="AT21" s="145"/>
-      <c r="AU21" s="146"/>
-      <c r="AV21" s="141" t="str">
+      <c r="AS21" s="158"/>
+      <c r="AT21" s="158"/>
+      <c r="AU21" s="159"/>
+      <c r="AV21" s="160" t="str">
         <f>AV17</f>
         <v>Key B</v>
       </c>
-      <c r="AW21" s="142"/>
-      <c r="AX21" s="142"/>
-      <c r="AY21" s="142"/>
-      <c r="AZ21" s="142"/>
-      <c r="BA21" s="143"/>
-      <c r="BB21" s="141" t="str">
+      <c r="AW21" s="161"/>
+      <c r="AX21" s="161"/>
+      <c r="AY21" s="161"/>
+      <c r="AZ21" s="161"/>
+      <c r="BA21" s="162"/>
+      <c r="BB21" s="160" t="str">
         <f>BB17</f>
         <v>Key A</v>
       </c>
-      <c r="BC21" s="142"/>
-      <c r="BD21" s="142"/>
-      <c r="BE21" s="142"/>
-      <c r="BF21" s="142"/>
-      <c r="BG21" s="143"/>
-      <c r="BH21" s="144" t="str">
+      <c r="BC21" s="161"/>
+      <c r="BD21" s="161"/>
+      <c r="BE21" s="161"/>
+      <c r="BF21" s="161"/>
+      <c r="BG21" s="162"/>
+      <c r="BH21" s="157" t="str">
         <f>BH17</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI21" s="145"/>
-      <c r="BJ21" s="145"/>
-      <c r="BK21" s="146"/>
-      <c r="BL21" s="141" t="str">
+      <c r="BI21" s="158"/>
+      <c r="BJ21" s="158"/>
+      <c r="BK21" s="159"/>
+      <c r="BL21" s="160" t="str">
         <f>BL17</f>
         <v>Key B</v>
       </c>
-      <c r="BM21" s="142"/>
-      <c r="BN21" s="142"/>
-      <c r="BO21" s="142"/>
-      <c r="BP21" s="142"/>
-      <c r="BQ21" s="143"/>
+      <c r="BM21" s="161"/>
+      <c r="BN21" s="161"/>
+      <c r="BO21" s="161"/>
+      <c r="BP21" s="161"/>
+      <c r="BQ21" s="162"/>
     </row>
     <row r="22" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="171">
+      <c r="A22" s="181">
         <v>6</v>
       </c>
       <c r="B22" s="69">
@@ -5030,51 +5030,51 @@
       <c r="AJ22" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AK22" s="138">
+      <c r="AK22" s="139">
         <f>AK18+1</f>
         <v>2</v>
       </c>
-      <c r="AL22" s="162" t="str">
+      <c r="AL22" s="178" t="str">
         <f>AL18</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="163"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="163"/>
-      <c r="AS22" s="163"/>
-      <c r="AT22" s="163"/>
-      <c r="AU22" s="163"/>
-      <c r="AV22" s="163"/>
-      <c r="AW22" s="163"/>
-      <c r="AX22" s="163"/>
-      <c r="AY22" s="163"/>
-      <c r="AZ22" s="163"/>
-      <c r="BA22" s="163"/>
-      <c r="BB22" s="162" t="str">
+      <c r="AM22" s="179"/>
+      <c r="AN22" s="179"/>
+      <c r="AO22" s="179"/>
+      <c r="AP22" s="179"/>
+      <c r="AQ22" s="179"/>
+      <c r="AR22" s="179"/>
+      <c r="AS22" s="179"/>
+      <c r="AT22" s="179"/>
+      <c r="AU22" s="179"/>
+      <c r="AV22" s="179"/>
+      <c r="AW22" s="179"/>
+      <c r="AX22" s="179"/>
+      <c r="AY22" s="179"/>
+      <c r="AZ22" s="179"/>
+      <c r="BA22" s="179"/>
+      <c r="BB22" s="178" t="str">
         <f>BB18</f>
         <v>48 Bytes</v>
       </c>
-      <c r="BC22" s="163"/>
-      <c r="BD22" s="163"/>
-      <c r="BE22" s="163"/>
-      <c r="BF22" s="163"/>
-      <c r="BG22" s="163"/>
-      <c r="BH22" s="163"/>
-      <c r="BI22" s="163"/>
-      <c r="BJ22" s="163"/>
-      <c r="BK22" s="163"/>
-      <c r="BL22" s="163"/>
-      <c r="BM22" s="163"/>
-      <c r="BN22" s="163"/>
-      <c r="BO22" s="163"/>
-      <c r="BP22" s="163"/>
-      <c r="BQ22" s="163"/>
+      <c r="BC22" s="179"/>
+      <c r="BD22" s="179"/>
+      <c r="BE22" s="179"/>
+      <c r="BF22" s="179"/>
+      <c r="BG22" s="179"/>
+      <c r="BH22" s="179"/>
+      <c r="BI22" s="179"/>
+      <c r="BJ22" s="179"/>
+      <c r="BK22" s="179"/>
+      <c r="BL22" s="179"/>
+      <c r="BM22" s="179"/>
+      <c r="BN22" s="179"/>
+      <c r="BO22" s="179"/>
+      <c r="BP22" s="179"/>
+      <c r="BQ22" s="179"/>
     </row>
     <row r="23" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="171"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="69">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5182,42 +5182,42 @@
         <f>AJ22</f>
         <v>Personal Block3</v>
       </c>
-      <c r="AK23" s="139"/>
-      <c r="AL23" s="147"/>
-      <c r="AM23" s="164"/>
-      <c r="AN23" s="164"/>
-      <c r="AO23" s="164"/>
-      <c r="AP23" s="164"/>
-      <c r="AQ23" s="164"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="164"/>
-      <c r="AT23" s="164"/>
-      <c r="AU23" s="164"/>
-      <c r="AV23" s="164"/>
-      <c r="AW23" s="164"/>
-      <c r="AX23" s="164"/>
-      <c r="AY23" s="164"/>
-      <c r="AZ23" s="164"/>
-      <c r="BA23" s="164"/>
-      <c r="BB23" s="147"/>
-      <c r="BC23" s="164"/>
-      <c r="BD23" s="164"/>
-      <c r="BE23" s="164"/>
-      <c r="BF23" s="164"/>
-      <c r="BG23" s="164"/>
-      <c r="BH23" s="164"/>
-      <c r="BI23" s="164"/>
-      <c r="BJ23" s="164"/>
-      <c r="BK23" s="164"/>
-      <c r="BL23" s="164"/>
-      <c r="BM23" s="164"/>
-      <c r="BN23" s="164"/>
-      <c r="BO23" s="164"/>
-      <c r="BP23" s="164"/>
-      <c r="BQ23" s="164"/>
+      <c r="AK23" s="140"/>
+      <c r="AL23" s="142"/>
+      <c r="AM23" s="180"/>
+      <c r="AN23" s="180"/>
+      <c r="AO23" s="180"/>
+      <c r="AP23" s="180"/>
+      <c r="AQ23" s="180"/>
+      <c r="AR23" s="180"/>
+      <c r="AS23" s="180"/>
+      <c r="AT23" s="180"/>
+      <c r="AU23" s="180"/>
+      <c r="AV23" s="180"/>
+      <c r="AW23" s="180"/>
+      <c r="AX23" s="180"/>
+      <c r="AY23" s="180"/>
+      <c r="AZ23" s="180"/>
+      <c r="BA23" s="180"/>
+      <c r="BB23" s="142"/>
+      <c r="BC23" s="180"/>
+      <c r="BD23" s="180"/>
+      <c r="BE23" s="180"/>
+      <c r="BF23" s="180"/>
+      <c r="BG23" s="180"/>
+      <c r="BH23" s="180"/>
+      <c r="BI23" s="180"/>
+      <c r="BJ23" s="180"/>
+      <c r="BK23" s="180"/>
+      <c r="BL23" s="180"/>
+      <c r="BM23" s="180"/>
+      <c r="BN23" s="180"/>
+      <c r="BO23" s="180"/>
+      <c r="BP23" s="180"/>
+      <c r="BQ23" s="180"/>
     </row>
     <row r="24" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="171"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="69">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5325,42 +5325,42 @@
         <f>AJ23</f>
         <v>Personal Block3</v>
       </c>
-      <c r="AK24" s="139"/>
-      <c r="AL24" s="150"/>
-      <c r="AM24" s="151"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="151"/>
-      <c r="AP24" s="151"/>
-      <c r="AQ24" s="151"/>
-      <c r="AR24" s="151"/>
-      <c r="AS24" s="151"/>
-      <c r="AT24" s="151"/>
-      <c r="AU24" s="151"/>
-      <c r="AV24" s="151"/>
-      <c r="AW24" s="151"/>
-      <c r="AX24" s="151"/>
-      <c r="AY24" s="151"/>
-      <c r="AZ24" s="151"/>
-      <c r="BA24" s="151"/>
-      <c r="BB24" s="150"/>
-      <c r="BC24" s="151"/>
-      <c r="BD24" s="151"/>
-      <c r="BE24" s="151"/>
-      <c r="BF24" s="151"/>
-      <c r="BG24" s="151"/>
-      <c r="BH24" s="151"/>
-      <c r="BI24" s="151"/>
-      <c r="BJ24" s="151"/>
-      <c r="BK24" s="151"/>
-      <c r="BL24" s="151"/>
-      <c r="BM24" s="151"/>
-      <c r="BN24" s="151"/>
-      <c r="BO24" s="151"/>
-      <c r="BP24" s="151"/>
-      <c r="BQ24" s="151"/>
+      <c r="AK24" s="140"/>
+      <c r="AL24" s="145"/>
+      <c r="AM24" s="146"/>
+      <c r="AN24" s="146"/>
+      <c r="AO24" s="146"/>
+      <c r="AP24" s="146"/>
+      <c r="AQ24" s="146"/>
+      <c r="AR24" s="146"/>
+      <c r="AS24" s="146"/>
+      <c r="AT24" s="146"/>
+      <c r="AU24" s="146"/>
+      <c r="AV24" s="146"/>
+      <c r="AW24" s="146"/>
+      <c r="AX24" s="146"/>
+      <c r="AY24" s="146"/>
+      <c r="AZ24" s="146"/>
+      <c r="BA24" s="146"/>
+      <c r="BB24" s="145"/>
+      <c r="BC24" s="146"/>
+      <c r="BD24" s="146"/>
+      <c r="BE24" s="146"/>
+      <c r="BF24" s="146"/>
+      <c r="BG24" s="146"/>
+      <c r="BH24" s="146"/>
+      <c r="BI24" s="146"/>
+      <c r="BJ24" s="146"/>
+      <c r="BK24" s="146"/>
+      <c r="BL24" s="146"/>
+      <c r="BM24" s="146"/>
+      <c r="BN24" s="146"/>
+      <c r="BO24" s="146"/>
+      <c r="BP24" s="146"/>
+      <c r="BQ24" s="146"/>
     </row>
     <row r="25" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="171"/>
+      <c r="A25" s="181"/>
       <c r="B25" s="77">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5467,60 +5467,60 @@
       <c r="AJ25" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK25" s="140"/>
-      <c r="AL25" s="141" t="str">
+      <c r="AK25" s="141"/>
+      <c r="AL25" s="160" t="str">
         <f>AL21</f>
         <v>Key A</v>
       </c>
-      <c r="AM25" s="142"/>
-      <c r="AN25" s="142"/>
-      <c r="AO25" s="142"/>
-      <c r="AP25" s="142"/>
-      <c r="AQ25" s="143"/>
-      <c r="AR25" s="144" t="str">
+      <c r="AM25" s="161"/>
+      <c r="AN25" s="161"/>
+      <c r="AO25" s="161"/>
+      <c r="AP25" s="161"/>
+      <c r="AQ25" s="162"/>
+      <c r="AR25" s="157" t="str">
         <f>AR21</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS25" s="145"/>
-      <c r="AT25" s="145"/>
-      <c r="AU25" s="146"/>
-      <c r="AV25" s="141" t="str">
+      <c r="AS25" s="158"/>
+      <c r="AT25" s="158"/>
+      <c r="AU25" s="159"/>
+      <c r="AV25" s="160" t="str">
         <f>AV21</f>
         <v>Key B</v>
       </c>
-      <c r="AW25" s="142"/>
-      <c r="AX25" s="142"/>
-      <c r="AY25" s="142"/>
-      <c r="AZ25" s="142"/>
-      <c r="BA25" s="143"/>
-      <c r="BB25" s="141" t="str">
+      <c r="AW25" s="161"/>
+      <c r="AX25" s="161"/>
+      <c r="AY25" s="161"/>
+      <c r="AZ25" s="161"/>
+      <c r="BA25" s="162"/>
+      <c r="BB25" s="160" t="str">
         <f>BB21</f>
         <v>Key A</v>
       </c>
-      <c r="BC25" s="142"/>
-      <c r="BD25" s="142"/>
-      <c r="BE25" s="142"/>
-      <c r="BF25" s="142"/>
-      <c r="BG25" s="143"/>
-      <c r="BH25" s="144" t="str">
+      <c r="BC25" s="161"/>
+      <c r="BD25" s="161"/>
+      <c r="BE25" s="161"/>
+      <c r="BF25" s="161"/>
+      <c r="BG25" s="162"/>
+      <c r="BH25" s="157" t="str">
         <f>BH21</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI25" s="145"/>
-      <c r="BJ25" s="145"/>
-      <c r="BK25" s="146"/>
-      <c r="BL25" s="141" t="str">
+      <c r="BI25" s="158"/>
+      <c r="BJ25" s="158"/>
+      <c r="BK25" s="159"/>
+      <c r="BL25" s="160" t="str">
         <f>BL21</f>
         <v>Key B</v>
       </c>
-      <c r="BM25" s="142"/>
-      <c r="BN25" s="142"/>
-      <c r="BO25" s="142"/>
-      <c r="BP25" s="142"/>
-      <c r="BQ25" s="143"/>
+      <c r="BM25" s="161"/>
+      <c r="BN25" s="161"/>
+      <c r="BO25" s="161"/>
+      <c r="BP25" s="161"/>
+      <c r="BQ25" s="162"/>
     </row>
     <row r="26" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="158">
+      <c r="A26" s="182">
         <v>7</v>
       </c>
       <c r="B26" s="69">
@@ -5629,51 +5629,51 @@
       <c r="AJ26" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AK26" s="138">
+      <c r="AK26" s="139">
         <f>AK22+1</f>
         <v>3</v>
       </c>
-      <c r="AL26" s="162" t="str">
+      <c r="AL26" s="178" t="str">
         <f t="shared" ref="AL26" si="1">AL22</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM26" s="163"/>
-      <c r="AN26" s="163"/>
-      <c r="AO26" s="163"/>
-      <c r="AP26" s="163"/>
-      <c r="AQ26" s="163"/>
-      <c r="AR26" s="163"/>
-      <c r="AS26" s="163"/>
-      <c r="AT26" s="163"/>
-      <c r="AU26" s="163"/>
-      <c r="AV26" s="163"/>
-      <c r="AW26" s="163"/>
-      <c r="AX26" s="163"/>
-      <c r="AY26" s="163"/>
-      <c r="AZ26" s="163"/>
-      <c r="BA26" s="163"/>
-      <c r="BB26" s="162" t="str">
+      <c r="AM26" s="179"/>
+      <c r="AN26" s="179"/>
+      <c r="AO26" s="179"/>
+      <c r="AP26" s="179"/>
+      <c r="AQ26" s="179"/>
+      <c r="AR26" s="179"/>
+      <c r="AS26" s="179"/>
+      <c r="AT26" s="179"/>
+      <c r="AU26" s="179"/>
+      <c r="AV26" s="179"/>
+      <c r="AW26" s="179"/>
+      <c r="AX26" s="179"/>
+      <c r="AY26" s="179"/>
+      <c r="AZ26" s="179"/>
+      <c r="BA26" s="179"/>
+      <c r="BB26" s="178" t="str">
         <f t="shared" ref="BB26" si="2">BB22</f>
         <v>48 Bytes</v>
       </c>
-      <c r="BC26" s="163"/>
-      <c r="BD26" s="163"/>
-      <c r="BE26" s="163"/>
-      <c r="BF26" s="163"/>
-      <c r="BG26" s="163"/>
-      <c r="BH26" s="163"/>
-      <c r="BI26" s="163"/>
-      <c r="BJ26" s="163"/>
-      <c r="BK26" s="163"/>
-      <c r="BL26" s="163"/>
-      <c r="BM26" s="163"/>
-      <c r="BN26" s="163"/>
-      <c r="BO26" s="163"/>
-      <c r="BP26" s="163"/>
-      <c r="BQ26" s="163"/>
+      <c r="BC26" s="179"/>
+      <c r="BD26" s="179"/>
+      <c r="BE26" s="179"/>
+      <c r="BF26" s="179"/>
+      <c r="BG26" s="179"/>
+      <c r="BH26" s="179"/>
+      <c r="BI26" s="179"/>
+      <c r="BJ26" s="179"/>
+      <c r="BK26" s="179"/>
+      <c r="BL26" s="179"/>
+      <c r="BM26" s="179"/>
+      <c r="BN26" s="179"/>
+      <c r="BO26" s="179"/>
+      <c r="BP26" s="179"/>
+      <c r="BQ26" s="179"/>
     </row>
     <row r="27" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="69">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5781,42 +5781,42 @@
         <f>AJ26</f>
         <v>Personal Block4</v>
       </c>
-      <c r="AK27" s="139"/>
-      <c r="AL27" s="147"/>
-      <c r="AM27" s="164"/>
-      <c r="AN27" s="164"/>
-      <c r="AO27" s="164"/>
-      <c r="AP27" s="164"/>
-      <c r="AQ27" s="164"/>
-      <c r="AR27" s="164"/>
-      <c r="AS27" s="164"/>
-      <c r="AT27" s="164"/>
-      <c r="AU27" s="164"/>
-      <c r="AV27" s="164"/>
-      <c r="AW27" s="164"/>
-      <c r="AX27" s="164"/>
-      <c r="AY27" s="164"/>
-      <c r="AZ27" s="164"/>
-      <c r="BA27" s="164"/>
-      <c r="BB27" s="147"/>
-      <c r="BC27" s="164"/>
-      <c r="BD27" s="164"/>
-      <c r="BE27" s="164"/>
-      <c r="BF27" s="164"/>
-      <c r="BG27" s="164"/>
-      <c r="BH27" s="164"/>
-      <c r="BI27" s="164"/>
-      <c r="BJ27" s="164"/>
-      <c r="BK27" s="164"/>
-      <c r="BL27" s="164"/>
-      <c r="BM27" s="164"/>
-      <c r="BN27" s="164"/>
-      <c r="BO27" s="164"/>
-      <c r="BP27" s="164"/>
-      <c r="BQ27" s="164"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="142"/>
+      <c r="AM27" s="180"/>
+      <c r="AN27" s="180"/>
+      <c r="AO27" s="180"/>
+      <c r="AP27" s="180"/>
+      <c r="AQ27" s="180"/>
+      <c r="AR27" s="180"/>
+      <c r="AS27" s="180"/>
+      <c r="AT27" s="180"/>
+      <c r="AU27" s="180"/>
+      <c r="AV27" s="180"/>
+      <c r="AW27" s="180"/>
+      <c r="AX27" s="180"/>
+      <c r="AY27" s="180"/>
+      <c r="AZ27" s="180"/>
+      <c r="BA27" s="180"/>
+      <c r="BB27" s="142"/>
+      <c r="BC27" s="180"/>
+      <c r="BD27" s="180"/>
+      <c r="BE27" s="180"/>
+      <c r="BF27" s="180"/>
+      <c r="BG27" s="180"/>
+      <c r="BH27" s="180"/>
+      <c r="BI27" s="180"/>
+      <c r="BJ27" s="180"/>
+      <c r="BK27" s="180"/>
+      <c r="BL27" s="180"/>
+      <c r="BM27" s="180"/>
+      <c r="BN27" s="180"/>
+      <c r="BO27" s="180"/>
+      <c r="BP27" s="180"/>
+      <c r="BQ27" s="180"/>
     </row>
     <row r="28" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="158"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="69">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5924,42 +5924,42 @@
         <f>AJ27</f>
         <v>Personal Block4</v>
       </c>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="150"/>
-      <c r="AM28" s="151"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="151"/>
-      <c r="BA28" s="151"/>
-      <c r="BB28" s="150"/>
-      <c r="BC28" s="151"/>
-      <c r="BD28" s="151"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="151"/>
-      <c r="BG28" s="151"/>
-      <c r="BH28" s="151"/>
-      <c r="BI28" s="151"/>
-      <c r="BJ28" s="151"/>
-      <c r="BK28" s="151"/>
-      <c r="BL28" s="151"/>
-      <c r="BM28" s="151"/>
-      <c r="BN28" s="151"/>
-      <c r="BO28" s="151"/>
-      <c r="BP28" s="151"/>
-      <c r="BQ28" s="151"/>
+      <c r="AK28" s="140"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="146"/>
+      <c r="AN28" s="146"/>
+      <c r="AO28" s="146"/>
+      <c r="AP28" s="146"/>
+      <c r="AQ28" s="146"/>
+      <c r="AR28" s="146"/>
+      <c r="AS28" s="146"/>
+      <c r="AT28" s="146"/>
+      <c r="AU28" s="146"/>
+      <c r="AV28" s="146"/>
+      <c r="AW28" s="146"/>
+      <c r="AX28" s="146"/>
+      <c r="AY28" s="146"/>
+      <c r="AZ28" s="146"/>
+      <c r="BA28" s="146"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="146"/>
+      <c r="BD28" s="146"/>
+      <c r="BE28" s="146"/>
+      <c r="BF28" s="146"/>
+      <c r="BG28" s="146"/>
+      <c r="BH28" s="146"/>
+      <c r="BI28" s="146"/>
+      <c r="BJ28" s="146"/>
+      <c r="BK28" s="146"/>
+      <c r="BL28" s="146"/>
+      <c r="BM28" s="146"/>
+      <c r="BN28" s="146"/>
+      <c r="BO28" s="146"/>
+      <c r="BP28" s="146"/>
+      <c r="BQ28" s="146"/>
     </row>
     <row r="29" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="158"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="77">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6066,60 +6066,60 @@
       <c r="AJ29" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK29" s="140"/>
-      <c r="AL29" s="141" t="str">
+      <c r="AK29" s="141"/>
+      <c r="AL29" s="160" t="str">
         <f t="shared" ref="AL29" si="3">AL25</f>
         <v>Key A</v>
       </c>
-      <c r="AM29" s="142"/>
-      <c r="AN29" s="142"/>
-      <c r="AO29" s="142"/>
-      <c r="AP29" s="142"/>
-      <c r="AQ29" s="143"/>
-      <c r="AR29" s="144" t="str">
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="161"/>
+      <c r="AO29" s="161"/>
+      <c r="AP29" s="161"/>
+      <c r="AQ29" s="162"/>
+      <c r="AR29" s="157" t="str">
         <f t="shared" ref="AR29" si="4">AR25</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS29" s="145"/>
-      <c r="AT29" s="145"/>
-      <c r="AU29" s="146"/>
-      <c r="AV29" s="141" t="str">
+      <c r="AS29" s="158"/>
+      <c r="AT29" s="158"/>
+      <c r="AU29" s="159"/>
+      <c r="AV29" s="160" t="str">
         <f t="shared" ref="AV29" si="5">AV25</f>
         <v>Key B</v>
       </c>
-      <c r="AW29" s="142"/>
-      <c r="AX29" s="142"/>
-      <c r="AY29" s="142"/>
-      <c r="AZ29" s="142"/>
-      <c r="BA29" s="143"/>
-      <c r="BB29" s="141" t="str">
+      <c r="AW29" s="161"/>
+      <c r="AX29" s="161"/>
+      <c r="AY29" s="161"/>
+      <c r="AZ29" s="161"/>
+      <c r="BA29" s="162"/>
+      <c r="BB29" s="160" t="str">
         <f t="shared" ref="BB29:BB30" si="6">BB25</f>
         <v>Key A</v>
       </c>
-      <c r="BC29" s="142"/>
-      <c r="BD29" s="142"/>
-      <c r="BE29" s="142"/>
-      <c r="BF29" s="142"/>
-      <c r="BG29" s="143"/>
-      <c r="BH29" s="144" t="str">
+      <c r="BC29" s="161"/>
+      <c r="BD29" s="161"/>
+      <c r="BE29" s="161"/>
+      <c r="BF29" s="161"/>
+      <c r="BG29" s="162"/>
+      <c r="BH29" s="157" t="str">
         <f t="shared" ref="BH29" si="7">BH25</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI29" s="145"/>
-      <c r="BJ29" s="145"/>
-      <c r="BK29" s="146"/>
-      <c r="BL29" s="141" t="str">
+      <c r="BI29" s="158"/>
+      <c r="BJ29" s="158"/>
+      <c r="BK29" s="159"/>
+      <c r="BL29" s="160" t="str">
         <f t="shared" ref="BL29" si="8">BL25</f>
         <v>Key B</v>
       </c>
-      <c r="BM29" s="142"/>
-      <c r="BN29" s="142"/>
-      <c r="BO29" s="142"/>
-      <c r="BP29" s="142"/>
-      <c r="BQ29" s="143"/>
+      <c r="BM29" s="161"/>
+      <c r="BN29" s="161"/>
+      <c r="BO29" s="161"/>
+      <c r="BP29" s="161"/>
+      <c r="BQ29" s="162"/>
     </row>
     <row r="30" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="171">
+      <c r="A30" s="181">
         <v>8</v>
       </c>
       <c r="B30" s="69">
@@ -6228,51 +6228,51 @@
       <c r="AJ30" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AK30" s="138">
+      <c r="AK30" s="139">
         <f>AK26+1</f>
         <v>4</v>
       </c>
-      <c r="AL30" s="162" t="str">
+      <c r="AL30" s="178" t="str">
         <f>AL26</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM30" s="163"/>
-      <c r="AN30" s="163"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="163"/>
-      <c r="AS30" s="163"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163"/>
-      <c r="AW30" s="163"/>
-      <c r="AX30" s="163"/>
-      <c r="AY30" s="163"/>
-      <c r="AZ30" s="163"/>
-      <c r="BA30" s="163"/>
-      <c r="BB30" s="162" t="str">
+      <c r="AM30" s="179"/>
+      <c r="AN30" s="179"/>
+      <c r="AO30" s="179"/>
+      <c r="AP30" s="179"/>
+      <c r="AQ30" s="179"/>
+      <c r="AR30" s="179"/>
+      <c r="AS30" s="179"/>
+      <c r="AT30" s="179"/>
+      <c r="AU30" s="179"/>
+      <c r="AV30" s="179"/>
+      <c r="AW30" s="179"/>
+      <c r="AX30" s="179"/>
+      <c r="AY30" s="179"/>
+      <c r="AZ30" s="179"/>
+      <c r="BA30" s="179"/>
+      <c r="BB30" s="178" t="str">
         <f t="shared" si="6"/>
         <v>48 Bytes</v>
       </c>
-      <c r="BC30" s="163"/>
-      <c r="BD30" s="163"/>
-      <c r="BE30" s="163"/>
-      <c r="BF30" s="163"/>
-      <c r="BG30" s="163"/>
-      <c r="BH30" s="163"/>
-      <c r="BI30" s="163"/>
-      <c r="BJ30" s="163"/>
-      <c r="BK30" s="163"/>
-      <c r="BL30" s="163"/>
-      <c r="BM30" s="163"/>
-      <c r="BN30" s="163"/>
-      <c r="BO30" s="163"/>
-      <c r="BP30" s="163"/>
-      <c r="BQ30" s="163"/>
+      <c r="BC30" s="179"/>
+      <c r="BD30" s="179"/>
+      <c r="BE30" s="179"/>
+      <c r="BF30" s="179"/>
+      <c r="BG30" s="179"/>
+      <c r="BH30" s="179"/>
+      <c r="BI30" s="179"/>
+      <c r="BJ30" s="179"/>
+      <c r="BK30" s="179"/>
+      <c r="BL30" s="179"/>
+      <c r="BM30" s="179"/>
+      <c r="BN30" s="179"/>
+      <c r="BO30" s="179"/>
+      <c r="BP30" s="179"/>
+      <c r="BQ30" s="179"/>
     </row>
     <row r="31" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="171"/>
+      <c r="A31" s="181"/>
       <c r="B31" s="69">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6380,42 +6380,42 @@
         <f>AJ30</f>
         <v>Personal Block5</v>
       </c>
-      <c r="AK31" s="139"/>
-      <c r="AL31" s="147"/>
-      <c r="AM31" s="164"/>
-      <c r="AN31" s="164"/>
-      <c r="AO31" s="164"/>
-      <c r="AP31" s="164"/>
-      <c r="AQ31" s="164"/>
-      <c r="AR31" s="164"/>
-      <c r="AS31" s="164"/>
-      <c r="AT31" s="164"/>
-      <c r="AU31" s="164"/>
-      <c r="AV31" s="164"/>
-      <c r="AW31" s="164"/>
-      <c r="AX31" s="164"/>
-      <c r="AY31" s="164"/>
-      <c r="AZ31" s="164"/>
-      <c r="BA31" s="164"/>
-      <c r="BB31" s="147"/>
-      <c r="BC31" s="164"/>
-      <c r="BD31" s="164"/>
-      <c r="BE31" s="164"/>
-      <c r="BF31" s="164"/>
-      <c r="BG31" s="164"/>
-      <c r="BH31" s="164"/>
-      <c r="BI31" s="164"/>
-      <c r="BJ31" s="164"/>
-      <c r="BK31" s="164"/>
-      <c r="BL31" s="164"/>
-      <c r="BM31" s="164"/>
-      <c r="BN31" s="164"/>
-      <c r="BO31" s="164"/>
-      <c r="BP31" s="164"/>
-      <c r="BQ31" s="164"/>
+      <c r="AK31" s="140"/>
+      <c r="AL31" s="142"/>
+      <c r="AM31" s="180"/>
+      <c r="AN31" s="180"/>
+      <c r="AO31" s="180"/>
+      <c r="AP31" s="180"/>
+      <c r="AQ31" s="180"/>
+      <c r="AR31" s="180"/>
+      <c r="AS31" s="180"/>
+      <c r="AT31" s="180"/>
+      <c r="AU31" s="180"/>
+      <c r="AV31" s="180"/>
+      <c r="AW31" s="180"/>
+      <c r="AX31" s="180"/>
+      <c r="AY31" s="180"/>
+      <c r="AZ31" s="180"/>
+      <c r="BA31" s="180"/>
+      <c r="BB31" s="142"/>
+      <c r="BC31" s="180"/>
+      <c r="BD31" s="180"/>
+      <c r="BE31" s="180"/>
+      <c r="BF31" s="180"/>
+      <c r="BG31" s="180"/>
+      <c r="BH31" s="180"/>
+      <c r="BI31" s="180"/>
+      <c r="BJ31" s="180"/>
+      <c r="BK31" s="180"/>
+      <c r="BL31" s="180"/>
+      <c r="BM31" s="180"/>
+      <c r="BN31" s="180"/>
+      <c r="BO31" s="180"/>
+      <c r="BP31" s="180"/>
+      <c r="BQ31" s="180"/>
     </row>
     <row r="32" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="171"/>
+      <c r="A32" s="181"/>
       <c r="B32" s="69">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6523,42 +6523,42 @@
         <f>AJ31</f>
         <v>Personal Block5</v>
       </c>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="150"/>
-      <c r="AM32" s="151"/>
-      <c r="AN32" s="151"/>
-      <c r="AO32" s="151"/>
-      <c r="AP32" s="151"/>
-      <c r="AQ32" s="151"/>
-      <c r="AR32" s="151"/>
-      <c r="AS32" s="151"/>
-      <c r="AT32" s="151"/>
-      <c r="AU32" s="151"/>
-      <c r="AV32" s="151"/>
-      <c r="AW32" s="151"/>
-      <c r="AX32" s="151"/>
-      <c r="AY32" s="151"/>
-      <c r="AZ32" s="151"/>
-      <c r="BA32" s="151"/>
-      <c r="BB32" s="150"/>
-      <c r="BC32" s="151"/>
-      <c r="BD32" s="151"/>
-      <c r="BE32" s="151"/>
-      <c r="BF32" s="151"/>
-      <c r="BG32" s="151"/>
-      <c r="BH32" s="151"/>
-      <c r="BI32" s="151"/>
-      <c r="BJ32" s="151"/>
-      <c r="BK32" s="151"/>
-      <c r="BL32" s="151"/>
-      <c r="BM32" s="151"/>
-      <c r="BN32" s="151"/>
-      <c r="BO32" s="151"/>
-      <c r="BP32" s="151"/>
-      <c r="BQ32" s="151"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="146"/>
+      <c r="AN32" s="146"/>
+      <c r="AO32" s="146"/>
+      <c r="AP32" s="146"/>
+      <c r="AQ32" s="146"/>
+      <c r="AR32" s="146"/>
+      <c r="AS32" s="146"/>
+      <c r="AT32" s="146"/>
+      <c r="AU32" s="146"/>
+      <c r="AV32" s="146"/>
+      <c r="AW32" s="146"/>
+      <c r="AX32" s="146"/>
+      <c r="AY32" s="146"/>
+      <c r="AZ32" s="146"/>
+      <c r="BA32" s="146"/>
+      <c r="BB32" s="145"/>
+      <c r="BC32" s="146"/>
+      <c r="BD32" s="146"/>
+      <c r="BE32" s="146"/>
+      <c r="BF32" s="146"/>
+      <c r="BG32" s="146"/>
+      <c r="BH32" s="146"/>
+      <c r="BI32" s="146"/>
+      <c r="BJ32" s="146"/>
+      <c r="BK32" s="146"/>
+      <c r="BL32" s="146"/>
+      <c r="BM32" s="146"/>
+      <c r="BN32" s="146"/>
+      <c r="BO32" s="146"/>
+      <c r="BP32" s="146"/>
+      <c r="BQ32" s="146"/>
     </row>
     <row r="33" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="171"/>
+      <c r="A33" s="181"/>
       <c r="B33" s="77">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6665,60 +6665,60 @@
       <c r="AJ33" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK33" s="140"/>
-      <c r="AL33" s="141" t="str">
+      <c r="AK33" s="141"/>
+      <c r="AL33" s="160" t="str">
         <f t="shared" ref="AL33" si="9">AL29</f>
         <v>Key A</v>
       </c>
-      <c r="AM33" s="142"/>
-      <c r="AN33" s="142"/>
-      <c r="AO33" s="142"/>
-      <c r="AP33" s="142"/>
-      <c r="AQ33" s="143"/>
-      <c r="AR33" s="144" t="str">
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="161"/>
+      <c r="AO33" s="161"/>
+      <c r="AP33" s="161"/>
+      <c r="AQ33" s="162"/>
+      <c r="AR33" s="157" t="str">
         <f t="shared" ref="AR33" si="10">AR29</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS33" s="145"/>
-      <c r="AT33" s="145"/>
-      <c r="AU33" s="146"/>
-      <c r="AV33" s="141" t="str">
+      <c r="AS33" s="158"/>
+      <c r="AT33" s="158"/>
+      <c r="AU33" s="159"/>
+      <c r="AV33" s="160" t="str">
         <f t="shared" ref="AV33" si="11">AV29</f>
         <v>Key B</v>
       </c>
-      <c r="AW33" s="142"/>
-      <c r="AX33" s="142"/>
-      <c r="AY33" s="142"/>
-      <c r="AZ33" s="142"/>
-      <c r="BA33" s="143"/>
-      <c r="BB33" s="141" t="str">
+      <c r="AW33" s="161"/>
+      <c r="AX33" s="161"/>
+      <c r="AY33" s="161"/>
+      <c r="AZ33" s="161"/>
+      <c r="BA33" s="162"/>
+      <c r="BB33" s="160" t="str">
         <f t="shared" ref="BB33" si="12">BB29</f>
         <v>Key A</v>
       </c>
-      <c r="BC33" s="142"/>
-      <c r="BD33" s="142"/>
-      <c r="BE33" s="142"/>
-      <c r="BF33" s="142"/>
-      <c r="BG33" s="143"/>
-      <c r="BH33" s="144" t="str">
+      <c r="BC33" s="161"/>
+      <c r="BD33" s="161"/>
+      <c r="BE33" s="161"/>
+      <c r="BF33" s="161"/>
+      <c r="BG33" s="162"/>
+      <c r="BH33" s="157" t="str">
         <f t="shared" ref="BH33" si="13">BH29</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI33" s="145"/>
-      <c r="BJ33" s="145"/>
-      <c r="BK33" s="146"/>
-      <c r="BL33" s="141" t="str">
+      <c r="BI33" s="158"/>
+      <c r="BJ33" s="158"/>
+      <c r="BK33" s="159"/>
+      <c r="BL33" s="160" t="str">
         <f t="shared" ref="BL33" si="14">BL29</f>
         <v>Key B</v>
       </c>
-      <c r="BM33" s="142"/>
-      <c r="BN33" s="142"/>
-      <c r="BO33" s="142"/>
-      <c r="BP33" s="142"/>
-      <c r="BQ33" s="143"/>
+      <c r="BM33" s="161"/>
+      <c r="BN33" s="161"/>
+      <c r="BO33" s="161"/>
+      <c r="BP33" s="161"/>
+      <c r="BQ33" s="162"/>
     </row>
     <row r="34" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="158">
+      <c r="A34" s="182">
         <v>9</v>
       </c>
       <c r="B34" s="107">
@@ -6827,52 +6827,52 @@
       <c r="AJ34" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AK34" s="212" t="s">
+      <c r="AK34" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="AL34" s="183" t="s">
+      <c r="AL34" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="AM34" s="184"/>
-      <c r="AN34" s="184"/>
-      <c r="AO34" s="184"/>
-      <c r="AP34" s="184"/>
-      <c r="AQ34" s="184"/>
-      <c r="AR34" s="184"/>
-      <c r="AS34" s="185"/>
-      <c r="AT34" s="186" t="s">
+      <c r="AM34" s="166"/>
+      <c r="AN34" s="166"/>
+      <c r="AO34" s="166"/>
+      <c r="AP34" s="166"/>
+      <c r="AQ34" s="166"/>
+      <c r="AR34" s="166"/>
+      <c r="AS34" s="167"/>
+      <c r="AT34" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="AU34" s="187"/>
-      <c r="AV34" s="187"/>
-      <c r="AW34" s="187"/>
-      <c r="AX34" s="187"/>
-      <c r="AY34" s="187"/>
-      <c r="AZ34" s="187"/>
-      <c r="BA34" s="188"/>
-      <c r="BB34" s="183" t="s">
+      <c r="AU34" s="173"/>
+      <c r="AV34" s="173"/>
+      <c r="AW34" s="173"/>
+      <c r="AX34" s="173"/>
+      <c r="AY34" s="173"/>
+      <c r="AZ34" s="173"/>
+      <c r="BA34" s="174"/>
+      <c r="BB34" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="BC34" s="184"/>
-      <c r="BD34" s="184"/>
-      <c r="BE34" s="184"/>
-      <c r="BF34" s="184"/>
-      <c r="BG34" s="184"/>
-      <c r="BH34" s="184"/>
-      <c r="BI34" s="185"/>
-      <c r="BJ34" s="186" t="s">
+      <c r="BC34" s="166"/>
+      <c r="BD34" s="166"/>
+      <c r="BE34" s="166"/>
+      <c r="BF34" s="166"/>
+      <c r="BG34" s="166"/>
+      <c r="BH34" s="166"/>
+      <c r="BI34" s="167"/>
+      <c r="BJ34" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="BK34" s="187"/>
-      <c r="BL34" s="187"/>
-      <c r="BM34" s="187"/>
-      <c r="BN34" s="187"/>
-      <c r="BO34" s="187"/>
-      <c r="BP34" s="187"/>
-      <c r="BQ34" s="188"/>
+      <c r="BK34" s="173"/>
+      <c r="BL34" s="173"/>
+      <c r="BM34" s="173"/>
+      <c r="BN34" s="173"/>
+      <c r="BO34" s="173"/>
+      <c r="BP34" s="173"/>
+      <c r="BQ34" s="174"/>
     </row>
     <row r="35" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="158"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="29">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6980,46 +6980,46 @@
         <f>AJ34</f>
         <v>Wallet  Backup</v>
       </c>
-      <c r="AK35" s="181"/>
-      <c r="AL35" s="213" t="s">
+      <c r="AK35" s="193"/>
+      <c r="AL35" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="AM35" s="214"/>
-      <c r="AN35" s="214"/>
-      <c r="AO35" s="214"/>
-      <c r="AP35" s="214"/>
-      <c r="AQ35" s="214"/>
-      <c r="AR35" s="215"/>
-      <c r="AS35" s="135"/>
-      <c r="AT35" s="136"/>
-      <c r="AU35" s="136"/>
-      <c r="AV35" s="136"/>
-      <c r="AW35" s="136"/>
-      <c r="AX35" s="136"/>
-      <c r="AY35" s="136"/>
-      <c r="AZ35" s="136"/>
-      <c r="BA35" s="137"/>
-      <c r="BB35" s="213" t="s">
+      <c r="AM35" s="176"/>
+      <c r="AN35" s="176"/>
+      <c r="AO35" s="176"/>
+      <c r="AP35" s="176"/>
+      <c r="AQ35" s="176"/>
+      <c r="AR35" s="177"/>
+      <c r="AS35" s="217"/>
+      <c r="AT35" s="218"/>
+      <c r="AU35" s="218"/>
+      <c r="AV35" s="218"/>
+      <c r="AW35" s="218"/>
+      <c r="AX35" s="218"/>
+      <c r="AY35" s="218"/>
+      <c r="AZ35" s="218"/>
+      <c r="BA35" s="219"/>
+      <c r="BB35" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="BC35" s="214"/>
-      <c r="BD35" s="214"/>
-      <c r="BE35" s="214"/>
-      <c r="BF35" s="214"/>
-      <c r="BG35" s="214"/>
-      <c r="BH35" s="215"/>
-      <c r="BI35" s="135"/>
-      <c r="BJ35" s="136"/>
-      <c r="BK35" s="136"/>
-      <c r="BL35" s="136"/>
-      <c r="BM35" s="136"/>
-      <c r="BN35" s="136"/>
-      <c r="BO35" s="136"/>
-      <c r="BP35" s="136"/>
-      <c r="BQ35" s="137"/>
+      <c r="BC35" s="176"/>
+      <c r="BD35" s="176"/>
+      <c r="BE35" s="176"/>
+      <c r="BF35" s="176"/>
+      <c r="BG35" s="176"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="217"/>
+      <c r="BJ35" s="218"/>
+      <c r="BK35" s="218"/>
+      <c r="BL35" s="218"/>
+      <c r="BM35" s="218"/>
+      <c r="BN35" s="218"/>
+      <c r="BO35" s="218"/>
+      <c r="BP35" s="218"/>
+      <c r="BQ35" s="219"/>
     </row>
     <row r="36" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="158"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7127,42 +7127,42 @@
         <f>AJ35</f>
         <v>Wallet  Backup</v>
       </c>
-      <c r="AK36" s="181"/>
-      <c r="AL36" s="132"/>
-      <c r="AM36" s="133"/>
-      <c r="AN36" s="133"/>
-      <c r="AO36" s="133"/>
-      <c r="AP36" s="133"/>
-      <c r="AQ36" s="133"/>
-      <c r="AR36" s="133"/>
-      <c r="AS36" s="133"/>
-      <c r="AT36" s="133"/>
-      <c r="AU36" s="133"/>
-      <c r="AV36" s="133"/>
-      <c r="AW36" s="133"/>
-      <c r="AX36" s="133"/>
-      <c r="AY36" s="133"/>
-      <c r="AZ36" s="133"/>
-      <c r="BA36" s="134"/>
-      <c r="BB36" s="132"/>
-      <c r="BC36" s="133"/>
-      <c r="BD36" s="133"/>
-      <c r="BE36" s="133"/>
-      <c r="BF36" s="133"/>
-      <c r="BG36" s="133"/>
-      <c r="BH36" s="133"/>
-      <c r="BI36" s="133"/>
-      <c r="BJ36" s="133"/>
-      <c r="BK36" s="133"/>
-      <c r="BL36" s="133"/>
-      <c r="BM36" s="133"/>
-      <c r="BN36" s="133"/>
-      <c r="BO36" s="133"/>
-      <c r="BP36" s="133"/>
-      <c r="BQ36" s="134"/>
+      <c r="AK36" s="193"/>
+      <c r="AL36" s="220"/>
+      <c r="AM36" s="221"/>
+      <c r="AN36" s="221"/>
+      <c r="AO36" s="221"/>
+      <c r="AP36" s="221"/>
+      <c r="AQ36" s="221"/>
+      <c r="AR36" s="221"/>
+      <c r="AS36" s="221"/>
+      <c r="AT36" s="221"/>
+      <c r="AU36" s="221"/>
+      <c r="AV36" s="221"/>
+      <c r="AW36" s="221"/>
+      <c r="AX36" s="221"/>
+      <c r="AY36" s="221"/>
+      <c r="AZ36" s="221"/>
+      <c r="BA36" s="222"/>
+      <c r="BB36" s="220"/>
+      <c r="BC36" s="221"/>
+      <c r="BD36" s="221"/>
+      <c r="BE36" s="221"/>
+      <c r="BF36" s="221"/>
+      <c r="BG36" s="221"/>
+      <c r="BH36" s="221"/>
+      <c r="BI36" s="221"/>
+      <c r="BJ36" s="221"/>
+      <c r="BK36" s="221"/>
+      <c r="BL36" s="221"/>
+      <c r="BM36" s="221"/>
+      <c r="BN36" s="221"/>
+      <c r="BO36" s="221"/>
+      <c r="BP36" s="221"/>
+      <c r="BQ36" s="222"/>
     </row>
     <row r="37" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="158"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="44">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7269,60 +7269,60 @@
       <c r="AJ37" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AK37" s="182"/>
-      <c r="AL37" s="193" t="str">
+      <c r="AK37" s="194"/>
+      <c r="AL37" s="163" t="str">
         <f>AL33</f>
         <v>Key A</v>
       </c>
-      <c r="AM37" s="193"/>
-      <c r="AN37" s="193"/>
-      <c r="AO37" s="193"/>
-      <c r="AP37" s="193"/>
-      <c r="AQ37" s="194"/>
-      <c r="AR37" s="183" t="str">
+      <c r="AM37" s="163"/>
+      <c r="AN37" s="163"/>
+      <c r="AO37" s="163"/>
+      <c r="AP37" s="163"/>
+      <c r="AQ37" s="164"/>
+      <c r="AR37" s="165" t="str">
         <f>AR33</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS37" s="184"/>
-      <c r="AT37" s="184"/>
-      <c r="AU37" s="185"/>
-      <c r="AV37" s="202" t="str">
+      <c r="AS37" s="166"/>
+      <c r="AT37" s="166"/>
+      <c r="AU37" s="167"/>
+      <c r="AV37" s="168" t="str">
         <f>AV33</f>
         <v>Key B</v>
       </c>
-      <c r="AW37" s="193"/>
-      <c r="AX37" s="193"/>
-      <c r="AY37" s="193"/>
-      <c r="AZ37" s="193"/>
-      <c r="BA37" s="194"/>
-      <c r="BB37" s="193" t="str">
+      <c r="AW37" s="163"/>
+      <c r="AX37" s="163"/>
+      <c r="AY37" s="163"/>
+      <c r="AZ37" s="163"/>
+      <c r="BA37" s="164"/>
+      <c r="BB37" s="163" t="str">
         <f>BB33</f>
         <v>Key A</v>
       </c>
-      <c r="BC37" s="193"/>
-      <c r="BD37" s="193"/>
-      <c r="BE37" s="193"/>
-      <c r="BF37" s="193"/>
-      <c r="BG37" s="194"/>
-      <c r="BH37" s="183" t="str">
+      <c r="BC37" s="163"/>
+      <c r="BD37" s="163"/>
+      <c r="BE37" s="163"/>
+      <c r="BF37" s="163"/>
+      <c r="BG37" s="164"/>
+      <c r="BH37" s="165" t="str">
         <f>BH33</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI37" s="184"/>
-      <c r="BJ37" s="184"/>
-      <c r="BK37" s="185"/>
-      <c r="BL37" s="202" t="str">
+      <c r="BI37" s="166"/>
+      <c r="BJ37" s="166"/>
+      <c r="BK37" s="167"/>
+      <c r="BL37" s="168" t="str">
         <f>BL33</f>
         <v>Key B</v>
       </c>
-      <c r="BM37" s="193"/>
-      <c r="BN37" s="193"/>
-      <c r="BO37" s="193"/>
-      <c r="BP37" s="193"/>
-      <c r="BQ37" s="194"/>
+      <c r="BM37" s="163"/>
+      <c r="BN37" s="163"/>
+      <c r="BO37" s="163"/>
+      <c r="BP37" s="163"/>
+      <c r="BQ37" s="164"/>
     </row>
     <row r="38" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="171">
+      <c r="A38" s="181">
         <v>10</v>
       </c>
       <c r="B38" s="52">
@@ -7431,52 +7431,52 @@
       <c r="AJ38" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AK38" s="203" t="s">
+      <c r="AK38" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="AL38" s="216" t="s">
+      <c r="AL38" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="AM38" s="217"/>
-      <c r="AN38" s="218"/>
-      <c r="AO38" s="209" t="s">
+      <c r="AM38" s="196"/>
+      <c r="AN38" s="197"/>
+      <c r="AO38" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AP38" s="210"/>
-      <c r="AQ38" s="210"/>
-      <c r="AR38" s="210"/>
-      <c r="AS38" s="210"/>
-      <c r="AT38" s="210"/>
-      <c r="AU38" s="211"/>
-      <c r="AV38" s="129"/>
-      <c r="AW38" s="130"/>
-      <c r="AX38" s="130"/>
-      <c r="AY38" s="130"/>
-      <c r="AZ38" s="130"/>
-      <c r="BA38" s="131"/>
-      <c r="BB38" s="209" t="s">
+      <c r="AP38" s="115"/>
+      <c r="AQ38" s="115"/>
+      <c r="AR38" s="115"/>
+      <c r="AS38" s="115"/>
+      <c r="AT38" s="115"/>
+      <c r="AU38" s="116"/>
+      <c r="AV38" s="117"/>
+      <c r="AW38" s="118"/>
+      <c r="AX38" s="118"/>
+      <c r="AY38" s="118"/>
+      <c r="AZ38" s="118"/>
+      <c r="BA38" s="119"/>
+      <c r="BB38" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="BC38" s="210"/>
-      <c r="BD38" s="211"/>
-      <c r="BE38" s="209" t="s">
+      <c r="BC38" s="115"/>
+      <c r="BD38" s="116"/>
+      <c r="BE38" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="BF38" s="210"/>
-      <c r="BG38" s="210"/>
-      <c r="BH38" s="210"/>
-      <c r="BI38" s="210"/>
-      <c r="BJ38" s="210"/>
-      <c r="BK38" s="211"/>
-      <c r="BL38" s="129"/>
-      <c r="BM38" s="130"/>
-      <c r="BN38" s="130"/>
-      <c r="BO38" s="130"/>
-      <c r="BP38" s="130"/>
-      <c r="BQ38" s="131"/>
+      <c r="BF38" s="115"/>
+      <c r="BG38" s="115"/>
+      <c r="BH38" s="115"/>
+      <c r="BI38" s="115"/>
+      <c r="BJ38" s="115"/>
+      <c r="BK38" s="116"/>
+      <c r="BL38" s="117"/>
+      <c r="BM38" s="118"/>
+      <c r="BN38" s="118"/>
+      <c r="BO38" s="118"/>
+      <c r="BP38" s="118"/>
+      <c r="BQ38" s="119"/>
     </row>
     <row r="39" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="171"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="52">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7584,42 +7584,42 @@
         <f>AJ38</f>
         <v>Meta data  Backup</v>
       </c>
-      <c r="AK39" s="204"/>
-      <c r="AL39" s="123"/>
-      <c r="AM39" s="124"/>
-      <c r="AN39" s="124"/>
-      <c r="AO39" s="124"/>
-      <c r="AP39" s="124"/>
-      <c r="AQ39" s="124"/>
-      <c r="AR39" s="124"/>
-      <c r="AS39" s="124"/>
-      <c r="AT39" s="124"/>
-      <c r="AU39" s="124"/>
-      <c r="AV39" s="124"/>
-      <c r="AW39" s="124"/>
-      <c r="AX39" s="124"/>
-      <c r="AY39" s="124"/>
-      <c r="AZ39" s="124"/>
-      <c r="BA39" s="125"/>
-      <c r="BB39" s="123"/>
-      <c r="BC39" s="124"/>
-      <c r="BD39" s="124"/>
-      <c r="BE39" s="124"/>
-      <c r="BF39" s="124"/>
-      <c r="BG39" s="124"/>
-      <c r="BH39" s="124"/>
-      <c r="BI39" s="124"/>
-      <c r="BJ39" s="124"/>
-      <c r="BK39" s="124"/>
-      <c r="BL39" s="124"/>
-      <c r="BM39" s="124"/>
-      <c r="BN39" s="124"/>
-      <c r="BO39" s="124"/>
-      <c r="BP39" s="124"/>
-      <c r="BQ39" s="125"/>
+      <c r="AK39" s="184"/>
+      <c r="AL39" s="120"/>
+      <c r="AM39" s="121"/>
+      <c r="AN39" s="121"/>
+      <c r="AO39" s="121"/>
+      <c r="AP39" s="121"/>
+      <c r="AQ39" s="121"/>
+      <c r="AR39" s="121"/>
+      <c r="AS39" s="121"/>
+      <c r="AT39" s="121"/>
+      <c r="AU39" s="121"/>
+      <c r="AV39" s="121"/>
+      <c r="AW39" s="121"/>
+      <c r="AX39" s="121"/>
+      <c r="AY39" s="121"/>
+      <c r="AZ39" s="121"/>
+      <c r="BA39" s="122"/>
+      <c r="BB39" s="120"/>
+      <c r="BC39" s="121"/>
+      <c r="BD39" s="121"/>
+      <c r="BE39" s="121"/>
+      <c r="BF39" s="121"/>
+      <c r="BG39" s="121"/>
+      <c r="BH39" s="121"/>
+      <c r="BI39" s="121"/>
+      <c r="BJ39" s="121"/>
+      <c r="BK39" s="121"/>
+      <c r="BL39" s="121"/>
+      <c r="BM39" s="121"/>
+      <c r="BN39" s="121"/>
+      <c r="BO39" s="121"/>
+      <c r="BP39" s="121"/>
+      <c r="BQ39" s="122"/>
     </row>
     <row r="40" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="171"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="52">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7727,42 +7727,42 @@
         <f>AJ39</f>
         <v>Meta data  Backup</v>
       </c>
-      <c r="AK40" s="204"/>
-      <c r="AL40" s="126"/>
-      <c r="AM40" s="127"/>
-      <c r="AN40" s="127"/>
-      <c r="AO40" s="127"/>
-      <c r="AP40" s="127"/>
-      <c r="AQ40" s="127"/>
-      <c r="AR40" s="127"/>
-      <c r="AS40" s="127"/>
-      <c r="AT40" s="127"/>
-      <c r="AU40" s="127"/>
-      <c r="AV40" s="127"/>
-      <c r="AW40" s="127"/>
-      <c r="AX40" s="127"/>
-      <c r="AY40" s="127"/>
-      <c r="AZ40" s="127"/>
-      <c r="BA40" s="128"/>
-      <c r="BB40" s="126"/>
-      <c r="BC40" s="127"/>
-      <c r="BD40" s="127"/>
-      <c r="BE40" s="127"/>
-      <c r="BF40" s="127"/>
-      <c r="BG40" s="127"/>
-      <c r="BH40" s="127"/>
-      <c r="BI40" s="127"/>
-      <c r="BJ40" s="127"/>
-      <c r="BK40" s="127"/>
-      <c r="BL40" s="127"/>
-      <c r="BM40" s="127"/>
-      <c r="BN40" s="127"/>
-      <c r="BO40" s="127"/>
-      <c r="BP40" s="127"/>
-      <c r="BQ40" s="128"/>
+      <c r="AK40" s="184"/>
+      <c r="AL40" s="123"/>
+      <c r="AM40" s="124"/>
+      <c r="AN40" s="124"/>
+      <c r="AO40" s="124"/>
+      <c r="AP40" s="124"/>
+      <c r="AQ40" s="124"/>
+      <c r="AR40" s="124"/>
+      <c r="AS40" s="124"/>
+      <c r="AT40" s="124"/>
+      <c r="AU40" s="124"/>
+      <c r="AV40" s="124"/>
+      <c r="AW40" s="124"/>
+      <c r="AX40" s="124"/>
+      <c r="AY40" s="124"/>
+      <c r="AZ40" s="124"/>
+      <c r="BA40" s="125"/>
+      <c r="BB40" s="123"/>
+      <c r="BC40" s="124"/>
+      <c r="BD40" s="124"/>
+      <c r="BE40" s="124"/>
+      <c r="BF40" s="124"/>
+      <c r="BG40" s="124"/>
+      <c r="BH40" s="124"/>
+      <c r="BI40" s="124"/>
+      <c r="BJ40" s="124"/>
+      <c r="BK40" s="124"/>
+      <c r="BL40" s="124"/>
+      <c r="BM40" s="124"/>
+      <c r="BN40" s="124"/>
+      <c r="BO40" s="124"/>
+      <c r="BP40" s="124"/>
+      <c r="BQ40" s="125"/>
     </row>
     <row r="41" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="171"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="91">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7869,60 +7869,60 @@
       <c r="AJ41" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AK41" s="205"/>
-      <c r="AL41" s="206" t="str">
+      <c r="AK41" s="185"/>
+      <c r="AL41" s="169" t="str">
         <f>AL37</f>
         <v>Key A</v>
       </c>
-      <c r="AM41" s="207"/>
-      <c r="AN41" s="207"/>
-      <c r="AO41" s="207"/>
-      <c r="AP41" s="207"/>
-      <c r="AQ41" s="208"/>
-      <c r="AR41" s="209" t="str">
+      <c r="AM41" s="170"/>
+      <c r="AN41" s="170"/>
+      <c r="AO41" s="170"/>
+      <c r="AP41" s="170"/>
+      <c r="AQ41" s="171"/>
+      <c r="AR41" s="114" t="str">
         <f>AR37</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS41" s="210"/>
-      <c r="AT41" s="210"/>
-      <c r="AU41" s="211"/>
-      <c r="AV41" s="206" t="str">
+      <c r="AS41" s="115"/>
+      <c r="AT41" s="115"/>
+      <c r="AU41" s="116"/>
+      <c r="AV41" s="169" t="str">
         <f>AV37</f>
         <v>Key B</v>
       </c>
-      <c r="AW41" s="207"/>
-      <c r="AX41" s="207"/>
-      <c r="AY41" s="207"/>
-      <c r="AZ41" s="207"/>
-      <c r="BA41" s="208"/>
-      <c r="BB41" s="165" t="str">
+      <c r="AW41" s="170"/>
+      <c r="AX41" s="170"/>
+      <c r="AY41" s="170"/>
+      <c r="AZ41" s="170"/>
+      <c r="BA41" s="171"/>
+      <c r="BB41" s="186" t="str">
         <f>BB37</f>
         <v>Key A</v>
       </c>
-      <c r="BC41" s="166"/>
-      <c r="BD41" s="166"/>
-      <c r="BE41" s="166"/>
-      <c r="BF41" s="166"/>
-      <c r="BG41" s="167"/>
-      <c r="BH41" s="168" t="str">
+      <c r="BC41" s="187"/>
+      <c r="BD41" s="187"/>
+      <c r="BE41" s="187"/>
+      <c r="BF41" s="187"/>
+      <c r="BG41" s="188"/>
+      <c r="BH41" s="189" t="str">
         <f>BH37</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI41" s="169"/>
-      <c r="BJ41" s="169"/>
-      <c r="BK41" s="170"/>
-      <c r="BL41" s="165" t="str">
+      <c r="BI41" s="190"/>
+      <c r="BJ41" s="190"/>
+      <c r="BK41" s="191"/>
+      <c r="BL41" s="186" t="str">
         <f>BL37</f>
         <v>Key B</v>
       </c>
-      <c r="BM41" s="166"/>
-      <c r="BN41" s="166"/>
-      <c r="BO41" s="166"/>
-      <c r="BP41" s="166"/>
-      <c r="BQ41" s="167"/>
+      <c r="BM41" s="187"/>
+      <c r="BN41" s="187"/>
+      <c r="BO41" s="187"/>
+      <c r="BP41" s="187"/>
+      <c r="BQ41" s="188"/>
     </row>
     <row r="42" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="158">
+      <c r="A42" s="182">
         <v>11</v>
       </c>
       <c r="B42" s="69">
@@ -8031,48 +8031,48 @@
       <c r="AJ42" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AK42" s="195" t="s">
+      <c r="AK42" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="AL42" s="189" t="s">
+      <c r="AL42" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="AM42" s="190"/>
-      <c r="AN42" s="190"/>
-      <c r="AO42" s="190"/>
-      <c r="AP42" s="190"/>
-      <c r="AQ42" s="190"/>
-      <c r="AR42" s="191"/>
-      <c r="AS42" s="192"/>
-      <c r="AT42" s="114"/>
-      <c r="AU42" s="115"/>
-      <c r="AV42" s="115"/>
-      <c r="AW42" s="115"/>
-      <c r="AX42" s="115"/>
-      <c r="AY42" s="115"/>
-      <c r="AZ42" s="115"/>
-      <c r="BA42" s="116"/>
-      <c r="BB42" s="189" t="s">
+      <c r="AM42" s="155"/>
+      <c r="AN42" s="155"/>
+      <c r="AO42" s="155"/>
+      <c r="AP42" s="155"/>
+      <c r="AQ42" s="155"/>
+      <c r="AR42" s="198"/>
+      <c r="AS42" s="199"/>
+      <c r="AT42" s="127"/>
+      <c r="AU42" s="128"/>
+      <c r="AV42" s="128"/>
+      <c r="AW42" s="128"/>
+      <c r="AX42" s="128"/>
+      <c r="AY42" s="128"/>
+      <c r="AZ42" s="128"/>
+      <c r="BA42" s="129"/>
+      <c r="BB42" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="BC42" s="190"/>
-      <c r="BD42" s="190"/>
-      <c r="BE42" s="190"/>
-      <c r="BF42" s="190"/>
-      <c r="BG42" s="190"/>
-      <c r="BH42" s="190"/>
-      <c r="BI42" s="201"/>
-      <c r="BJ42" s="114"/>
-      <c r="BK42" s="115"/>
-      <c r="BL42" s="115"/>
-      <c r="BM42" s="115"/>
-      <c r="BN42" s="115"/>
-      <c r="BO42" s="115"/>
-      <c r="BP42" s="115"/>
-      <c r="BQ42" s="116"/>
+      <c r="BC42" s="155"/>
+      <c r="BD42" s="155"/>
+      <c r="BE42" s="155"/>
+      <c r="BF42" s="155"/>
+      <c r="BG42" s="155"/>
+      <c r="BH42" s="155"/>
+      <c r="BI42" s="156"/>
+      <c r="BJ42" s="127"/>
+      <c r="BK42" s="128"/>
+      <c r="BL42" s="128"/>
+      <c r="BM42" s="128"/>
+      <c r="BN42" s="128"/>
+      <c r="BO42" s="128"/>
+      <c r="BP42" s="128"/>
+      <c r="BQ42" s="129"/>
     </row>
     <row r="43" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="158"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="69">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -8180,47 +8180,47 @@
         <f>AJ42</f>
         <v>Not used</v>
       </c>
-      <c r="AK43" s="196"/>
-      <c r="AL43" s="117" t="s">
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="AM43" s="118"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="118"/>
-      <c r="AP43" s="118"/>
-      <c r="AQ43" s="118"/>
-      <c r="AR43" s="118"/>
-      <c r="AS43" s="118"/>
-      <c r="AT43" s="118"/>
-      <c r="AU43" s="118"/>
-      <c r="AV43" s="118"/>
-      <c r="AW43" s="118"/>
-      <c r="AX43" s="118"/>
-      <c r="AY43" s="118"/>
-      <c r="AZ43" s="118"/>
-      <c r="BA43" s="119"/>
-      <c r="BB43" s="117" t="str">
+      <c r="AM43" s="131"/>
+      <c r="AN43" s="131"/>
+      <c r="AO43" s="131"/>
+      <c r="AP43" s="131"/>
+      <c r="AQ43" s="131"/>
+      <c r="AR43" s="131"/>
+      <c r="AS43" s="131"/>
+      <c r="AT43" s="131"/>
+      <c r="AU43" s="131"/>
+      <c r="AV43" s="131"/>
+      <c r="AW43" s="131"/>
+      <c r="AX43" s="131"/>
+      <c r="AY43" s="131"/>
+      <c r="AZ43" s="131"/>
+      <c r="BA43" s="132"/>
+      <c r="BB43" s="130" t="str">
         <f>BB15</f>
         <v>40 Bytes</v>
       </c>
-      <c r="BC43" s="118"/>
-      <c r="BD43" s="118"/>
-      <c r="BE43" s="118"/>
-      <c r="BF43" s="118"/>
-      <c r="BG43" s="118"/>
-      <c r="BH43" s="118"/>
-      <c r="BI43" s="118"/>
-      <c r="BJ43" s="118"/>
-      <c r="BK43" s="118"/>
-      <c r="BL43" s="118"/>
-      <c r="BM43" s="118"/>
-      <c r="BN43" s="118"/>
-      <c r="BO43" s="118"/>
-      <c r="BP43" s="118"/>
-      <c r="BQ43" s="119"/>
+      <c r="BC43" s="131"/>
+      <c r="BD43" s="131"/>
+      <c r="BE43" s="131"/>
+      <c r="BF43" s="131"/>
+      <c r="BG43" s="131"/>
+      <c r="BH43" s="131"/>
+      <c r="BI43" s="131"/>
+      <c r="BJ43" s="131"/>
+      <c r="BK43" s="131"/>
+      <c r="BL43" s="131"/>
+      <c r="BM43" s="131"/>
+      <c r="BN43" s="131"/>
+      <c r="BO43" s="131"/>
+      <c r="BP43" s="131"/>
+      <c r="BQ43" s="132"/>
     </row>
     <row r="44" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="158"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="69">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -8328,42 +8328,42 @@
         <f>AJ43</f>
         <v>Not used</v>
       </c>
-      <c r="AK44" s="196"/>
-      <c r="AL44" s="120"/>
-      <c r="AM44" s="121"/>
-      <c r="AN44" s="121"/>
-      <c r="AO44" s="121"/>
-      <c r="AP44" s="121"/>
-      <c r="AQ44" s="121"/>
-      <c r="AR44" s="121"/>
-      <c r="AS44" s="121"/>
-      <c r="AT44" s="121"/>
-      <c r="AU44" s="121"/>
-      <c r="AV44" s="121"/>
-      <c r="AW44" s="121"/>
-      <c r="AX44" s="121"/>
-      <c r="AY44" s="121"/>
-      <c r="AZ44" s="121"/>
-      <c r="BA44" s="122"/>
-      <c r="BB44" s="120"/>
-      <c r="BC44" s="121"/>
-      <c r="BD44" s="121"/>
-      <c r="BE44" s="121"/>
-      <c r="BF44" s="121"/>
-      <c r="BG44" s="121"/>
-      <c r="BH44" s="121"/>
-      <c r="BI44" s="121"/>
-      <c r="BJ44" s="121"/>
-      <c r="BK44" s="121"/>
-      <c r="BL44" s="121"/>
-      <c r="BM44" s="121"/>
-      <c r="BN44" s="121"/>
-      <c r="BO44" s="121"/>
-      <c r="BP44" s="121"/>
-      <c r="BQ44" s="122"/>
+      <c r="AK44" s="152"/>
+      <c r="AL44" s="133"/>
+      <c r="AM44" s="134"/>
+      <c r="AN44" s="134"/>
+      <c r="AO44" s="134"/>
+      <c r="AP44" s="134"/>
+      <c r="AQ44" s="134"/>
+      <c r="AR44" s="134"/>
+      <c r="AS44" s="134"/>
+      <c r="AT44" s="134"/>
+      <c r="AU44" s="134"/>
+      <c r="AV44" s="134"/>
+      <c r="AW44" s="134"/>
+      <c r="AX44" s="134"/>
+      <c r="AY44" s="134"/>
+      <c r="AZ44" s="134"/>
+      <c r="BA44" s="135"/>
+      <c r="BB44" s="133"/>
+      <c r="BC44" s="134"/>
+      <c r="BD44" s="134"/>
+      <c r="BE44" s="134"/>
+      <c r="BF44" s="134"/>
+      <c r="BG44" s="134"/>
+      <c r="BH44" s="134"/>
+      <c r="BI44" s="134"/>
+      <c r="BJ44" s="134"/>
+      <c r="BK44" s="134"/>
+      <c r="BL44" s="134"/>
+      <c r="BM44" s="134"/>
+      <c r="BN44" s="134"/>
+      <c r="BO44" s="134"/>
+      <c r="BP44" s="134"/>
+      <c r="BQ44" s="135"/>
     </row>
     <row r="45" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="158"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="77">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -8470,60 +8470,60 @@
       <c r="AJ45" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AK45" s="197"/>
-      <c r="AL45" s="198" t="str">
+      <c r="AK45" s="153"/>
+      <c r="AL45" s="136" t="str">
         <f>AL41</f>
         <v>Key A</v>
       </c>
-      <c r="AM45" s="199"/>
-      <c r="AN45" s="199"/>
-      <c r="AO45" s="199"/>
-      <c r="AP45" s="199"/>
-      <c r="AQ45" s="200"/>
-      <c r="AR45" s="189" t="str">
+      <c r="AM45" s="137"/>
+      <c r="AN45" s="137"/>
+      <c r="AO45" s="137"/>
+      <c r="AP45" s="137"/>
+      <c r="AQ45" s="138"/>
+      <c r="AR45" s="154" t="str">
         <f>AR41</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS45" s="190"/>
-      <c r="AT45" s="190"/>
-      <c r="AU45" s="201"/>
-      <c r="AV45" s="198" t="str">
+      <c r="AS45" s="155"/>
+      <c r="AT45" s="155"/>
+      <c r="AU45" s="156"/>
+      <c r="AV45" s="136" t="str">
         <f>AV41</f>
         <v>Key B</v>
       </c>
-      <c r="AW45" s="199"/>
-      <c r="AX45" s="199"/>
-      <c r="AY45" s="199"/>
-      <c r="AZ45" s="199"/>
-      <c r="BA45" s="200"/>
-      <c r="BB45" s="198" t="str">
+      <c r="AW45" s="137"/>
+      <c r="AX45" s="137"/>
+      <c r="AY45" s="137"/>
+      <c r="AZ45" s="137"/>
+      <c r="BA45" s="138"/>
+      <c r="BB45" s="136" t="str">
         <f>BB41</f>
         <v>Key A</v>
       </c>
-      <c r="BC45" s="199"/>
-      <c r="BD45" s="199"/>
-      <c r="BE45" s="199"/>
-      <c r="BF45" s="199"/>
-      <c r="BG45" s="200"/>
-      <c r="BH45" s="189" t="str">
+      <c r="BC45" s="137"/>
+      <c r="BD45" s="137"/>
+      <c r="BE45" s="137"/>
+      <c r="BF45" s="137"/>
+      <c r="BG45" s="138"/>
+      <c r="BH45" s="154" t="str">
         <f>BH41</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI45" s="190"/>
-      <c r="BJ45" s="190"/>
-      <c r="BK45" s="201"/>
-      <c r="BL45" s="198" t="str">
+      <c r="BI45" s="155"/>
+      <c r="BJ45" s="155"/>
+      <c r="BK45" s="156"/>
+      <c r="BL45" s="136" t="str">
         <f>BL41</f>
         <v>Key B</v>
       </c>
-      <c r="BM45" s="199"/>
-      <c r="BN45" s="199"/>
-      <c r="BO45" s="199"/>
-      <c r="BP45" s="199"/>
-      <c r="BQ45" s="200"/>
+      <c r="BM45" s="137"/>
+      <c r="BN45" s="137"/>
+      <c r="BO45" s="137"/>
+      <c r="BP45" s="137"/>
+      <c r="BQ45" s="138"/>
     </row>
     <row r="46" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="171">
+      <c r="A46" s="181">
         <v>12</v>
       </c>
       <c r="B46" s="69">
@@ -8632,50 +8632,50 @@
       <c r="AJ46" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="AK46" s="138">
+      <c r="AK46" s="139">
         <v>1</v>
       </c>
-      <c r="AL46" s="162" t="str">
+      <c r="AL46" s="178" t="str">
         <f>AL30</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM46" s="163"/>
-      <c r="AN46" s="163"/>
-      <c r="AO46" s="163"/>
-      <c r="AP46" s="163"/>
-      <c r="AQ46" s="163"/>
-      <c r="AR46" s="163"/>
-      <c r="AS46" s="163"/>
-      <c r="AT46" s="163"/>
-      <c r="AU46" s="163"/>
-      <c r="AV46" s="163"/>
-      <c r="AW46" s="163"/>
-      <c r="AX46" s="163"/>
-      <c r="AY46" s="163"/>
-      <c r="AZ46" s="163"/>
-      <c r="BA46" s="163"/>
-      <c r="BB46" s="162" t="str">
+      <c r="AM46" s="179"/>
+      <c r="AN46" s="179"/>
+      <c r="AO46" s="179"/>
+      <c r="AP46" s="179"/>
+      <c r="AQ46" s="179"/>
+      <c r="AR46" s="179"/>
+      <c r="AS46" s="179"/>
+      <c r="AT46" s="179"/>
+      <c r="AU46" s="179"/>
+      <c r="AV46" s="179"/>
+      <c r="AW46" s="179"/>
+      <c r="AX46" s="179"/>
+      <c r="AY46" s="179"/>
+      <c r="AZ46" s="179"/>
+      <c r="BA46" s="179"/>
+      <c r="BB46" s="178" t="str">
         <f>BB34</f>
         <v>8 Bytes</v>
       </c>
-      <c r="BC46" s="163"/>
-      <c r="BD46" s="163"/>
-      <c r="BE46" s="163"/>
-      <c r="BF46" s="163"/>
-      <c r="BG46" s="163"/>
-      <c r="BH46" s="163"/>
-      <c r="BI46" s="163"/>
-      <c r="BJ46" s="163"/>
-      <c r="BK46" s="163"/>
-      <c r="BL46" s="163"/>
-      <c r="BM46" s="163"/>
-      <c r="BN46" s="163"/>
-      <c r="BO46" s="163"/>
-      <c r="BP46" s="163"/>
-      <c r="BQ46" s="163"/>
+      <c r="BC46" s="179"/>
+      <c r="BD46" s="179"/>
+      <c r="BE46" s="179"/>
+      <c r="BF46" s="179"/>
+      <c r="BG46" s="179"/>
+      <c r="BH46" s="179"/>
+      <c r="BI46" s="179"/>
+      <c r="BJ46" s="179"/>
+      <c r="BK46" s="179"/>
+      <c r="BL46" s="179"/>
+      <c r="BM46" s="179"/>
+      <c r="BN46" s="179"/>
+      <c r="BO46" s="179"/>
+      <c r="BP46" s="179"/>
+      <c r="BQ46" s="179"/>
     </row>
     <row r="47" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="171"/>
+      <c r="A47" s="181"/>
       <c r="B47" s="69">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -8783,42 +8783,42 @@
         <f>AJ46</f>
         <v>Personal Block1 Backup</v>
       </c>
-      <c r="AK47" s="139"/>
-      <c r="AL47" s="147"/>
-      <c r="AM47" s="164"/>
-      <c r="AN47" s="164"/>
-      <c r="AO47" s="164"/>
-      <c r="AP47" s="164"/>
-      <c r="AQ47" s="164"/>
-      <c r="AR47" s="164"/>
-      <c r="AS47" s="164"/>
-      <c r="AT47" s="164"/>
-      <c r="AU47" s="164"/>
-      <c r="AV47" s="164"/>
-      <c r="AW47" s="164"/>
-      <c r="AX47" s="164"/>
-      <c r="AY47" s="164"/>
-      <c r="AZ47" s="164"/>
-      <c r="BA47" s="164"/>
-      <c r="BB47" s="147"/>
-      <c r="BC47" s="164"/>
-      <c r="BD47" s="164"/>
-      <c r="BE47" s="164"/>
-      <c r="BF47" s="164"/>
-      <c r="BG47" s="164"/>
-      <c r="BH47" s="164"/>
-      <c r="BI47" s="164"/>
-      <c r="BJ47" s="164"/>
-      <c r="BK47" s="164"/>
-      <c r="BL47" s="164"/>
-      <c r="BM47" s="164"/>
-      <c r="BN47" s="164"/>
-      <c r="BO47" s="164"/>
-      <c r="BP47" s="164"/>
-      <c r="BQ47" s="164"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="142"/>
+      <c r="AM47" s="180"/>
+      <c r="AN47" s="180"/>
+      <c r="AO47" s="180"/>
+      <c r="AP47" s="180"/>
+      <c r="AQ47" s="180"/>
+      <c r="AR47" s="180"/>
+      <c r="AS47" s="180"/>
+      <c r="AT47" s="180"/>
+      <c r="AU47" s="180"/>
+      <c r="AV47" s="180"/>
+      <c r="AW47" s="180"/>
+      <c r="AX47" s="180"/>
+      <c r="AY47" s="180"/>
+      <c r="AZ47" s="180"/>
+      <c r="BA47" s="180"/>
+      <c r="BB47" s="142"/>
+      <c r="BC47" s="180"/>
+      <c r="BD47" s="180"/>
+      <c r="BE47" s="180"/>
+      <c r="BF47" s="180"/>
+      <c r="BG47" s="180"/>
+      <c r="BH47" s="180"/>
+      <c r="BI47" s="180"/>
+      <c r="BJ47" s="180"/>
+      <c r="BK47" s="180"/>
+      <c r="BL47" s="180"/>
+      <c r="BM47" s="180"/>
+      <c r="BN47" s="180"/>
+      <c r="BO47" s="180"/>
+      <c r="BP47" s="180"/>
+      <c r="BQ47" s="180"/>
     </row>
     <row r="48" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="171"/>
+      <c r="A48" s="181"/>
       <c r="B48" s="69">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -8926,42 +8926,42 @@
         <f>AJ47</f>
         <v>Personal Block1 Backup</v>
       </c>
-      <c r="AK48" s="139"/>
-      <c r="AL48" s="150"/>
-      <c r="AM48" s="151"/>
-      <c r="AN48" s="151"/>
-      <c r="AO48" s="151"/>
-      <c r="AP48" s="151"/>
-      <c r="AQ48" s="151"/>
-      <c r="AR48" s="151"/>
-      <c r="AS48" s="151"/>
-      <c r="AT48" s="151"/>
-      <c r="AU48" s="151"/>
-      <c r="AV48" s="151"/>
-      <c r="AW48" s="151"/>
-      <c r="AX48" s="151"/>
-      <c r="AY48" s="151"/>
-      <c r="AZ48" s="151"/>
-      <c r="BA48" s="151"/>
-      <c r="BB48" s="150"/>
-      <c r="BC48" s="151"/>
-      <c r="BD48" s="151"/>
-      <c r="BE48" s="151"/>
-      <c r="BF48" s="151"/>
-      <c r="BG48" s="151"/>
-      <c r="BH48" s="151"/>
-      <c r="BI48" s="151"/>
-      <c r="BJ48" s="151"/>
-      <c r="BK48" s="151"/>
-      <c r="BL48" s="151"/>
-      <c r="BM48" s="151"/>
-      <c r="BN48" s="151"/>
-      <c r="BO48" s="151"/>
-      <c r="BP48" s="151"/>
-      <c r="BQ48" s="151"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="145"/>
+      <c r="AM48" s="146"/>
+      <c r="AN48" s="146"/>
+      <c r="AO48" s="146"/>
+      <c r="AP48" s="146"/>
+      <c r="AQ48" s="146"/>
+      <c r="AR48" s="146"/>
+      <c r="AS48" s="146"/>
+      <c r="AT48" s="146"/>
+      <c r="AU48" s="146"/>
+      <c r="AV48" s="146"/>
+      <c r="AW48" s="146"/>
+      <c r="AX48" s="146"/>
+      <c r="AY48" s="146"/>
+      <c r="AZ48" s="146"/>
+      <c r="BA48" s="146"/>
+      <c r="BB48" s="145"/>
+      <c r="BC48" s="146"/>
+      <c r="BD48" s="146"/>
+      <c r="BE48" s="146"/>
+      <c r="BF48" s="146"/>
+      <c r="BG48" s="146"/>
+      <c r="BH48" s="146"/>
+      <c r="BI48" s="146"/>
+      <c r="BJ48" s="146"/>
+      <c r="BK48" s="146"/>
+      <c r="BL48" s="146"/>
+      <c r="BM48" s="146"/>
+      <c r="BN48" s="146"/>
+      <c r="BO48" s="146"/>
+      <c r="BP48" s="146"/>
+      <c r="BQ48" s="146"/>
     </row>
     <row r="49" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="171"/>
+      <c r="A49" s="181"/>
       <c r="B49" s="77">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -9068,60 +9068,60 @@
       <c r="AJ49" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK49" s="140"/>
-      <c r="AL49" s="141" t="str">
+      <c r="AK49" s="141"/>
+      <c r="AL49" s="160" t="str">
         <f>AL45</f>
         <v>Key A</v>
       </c>
-      <c r="AM49" s="142"/>
-      <c r="AN49" s="142"/>
-      <c r="AO49" s="142"/>
-      <c r="AP49" s="142"/>
-      <c r="AQ49" s="143"/>
-      <c r="AR49" s="144" t="str">
+      <c r="AM49" s="161"/>
+      <c r="AN49" s="161"/>
+      <c r="AO49" s="161"/>
+      <c r="AP49" s="161"/>
+      <c r="AQ49" s="162"/>
+      <c r="AR49" s="157" t="str">
         <f>AR45</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS49" s="145"/>
-      <c r="AT49" s="145"/>
-      <c r="AU49" s="146"/>
-      <c r="AV49" s="141" t="str">
+      <c r="AS49" s="158"/>
+      <c r="AT49" s="158"/>
+      <c r="AU49" s="159"/>
+      <c r="AV49" s="160" t="str">
         <f>AV45</f>
         <v>Key B</v>
       </c>
-      <c r="AW49" s="142"/>
-      <c r="AX49" s="142"/>
-      <c r="AY49" s="142"/>
-      <c r="AZ49" s="142"/>
-      <c r="BA49" s="143"/>
-      <c r="BB49" s="141" t="str">
+      <c r="AW49" s="161"/>
+      <c r="AX49" s="161"/>
+      <c r="AY49" s="161"/>
+      <c r="AZ49" s="161"/>
+      <c r="BA49" s="162"/>
+      <c r="BB49" s="160" t="str">
         <f>BB45</f>
         <v>Key A</v>
       </c>
-      <c r="BC49" s="142"/>
-      <c r="BD49" s="142"/>
-      <c r="BE49" s="142"/>
-      <c r="BF49" s="142"/>
-      <c r="BG49" s="143"/>
-      <c r="BH49" s="144" t="str">
+      <c r="BC49" s="161"/>
+      <c r="BD49" s="161"/>
+      <c r="BE49" s="161"/>
+      <c r="BF49" s="161"/>
+      <c r="BG49" s="162"/>
+      <c r="BH49" s="157" t="str">
         <f>BH45</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI49" s="145"/>
-      <c r="BJ49" s="145"/>
-      <c r="BK49" s="146"/>
-      <c r="BL49" s="141" t="str">
+      <c r="BI49" s="158"/>
+      <c r="BJ49" s="158"/>
+      <c r="BK49" s="159"/>
+      <c r="BL49" s="160" t="str">
         <f>BL45</f>
         <v>Key B</v>
       </c>
-      <c r="BM49" s="142"/>
-      <c r="BN49" s="142"/>
-      <c r="BO49" s="142"/>
-      <c r="BP49" s="142"/>
-      <c r="BQ49" s="143"/>
+      <c r="BM49" s="161"/>
+      <c r="BN49" s="161"/>
+      <c r="BO49" s="161"/>
+      <c r="BP49" s="161"/>
+      <c r="BQ49" s="162"/>
     </row>
     <row r="50" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="158">
+      <c r="A50" s="182">
         <v>13</v>
       </c>
       <c r="B50" s="69">
@@ -9230,51 +9230,51 @@
       <c r="AJ50" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="AK50" s="138">
+      <c r="AK50" s="139">
         <f>AK46+1</f>
         <v>2</v>
       </c>
-      <c r="AL50" s="162" t="str">
+      <c r="AL50" s="178" t="str">
         <f>AL46</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM50" s="163"/>
-      <c r="AN50" s="163"/>
-      <c r="AO50" s="163"/>
-      <c r="AP50" s="163"/>
-      <c r="AQ50" s="163"/>
-      <c r="AR50" s="163"/>
-      <c r="AS50" s="163"/>
-      <c r="AT50" s="163"/>
-      <c r="AU50" s="163"/>
-      <c r="AV50" s="163"/>
-      <c r="AW50" s="163"/>
-      <c r="AX50" s="163"/>
-      <c r="AY50" s="163"/>
-      <c r="AZ50" s="163"/>
-      <c r="BA50" s="163"/>
-      <c r="BB50" s="162" t="str">
+      <c r="AM50" s="179"/>
+      <c r="AN50" s="179"/>
+      <c r="AO50" s="179"/>
+      <c r="AP50" s="179"/>
+      <c r="AQ50" s="179"/>
+      <c r="AR50" s="179"/>
+      <c r="AS50" s="179"/>
+      <c r="AT50" s="179"/>
+      <c r="AU50" s="179"/>
+      <c r="AV50" s="179"/>
+      <c r="AW50" s="179"/>
+      <c r="AX50" s="179"/>
+      <c r="AY50" s="179"/>
+      <c r="AZ50" s="179"/>
+      <c r="BA50" s="179"/>
+      <c r="BB50" s="178" t="str">
         <f>BB46</f>
         <v>8 Bytes</v>
       </c>
-      <c r="BC50" s="163"/>
-      <c r="BD50" s="163"/>
-      <c r="BE50" s="163"/>
-      <c r="BF50" s="163"/>
-      <c r="BG50" s="163"/>
-      <c r="BH50" s="163"/>
-      <c r="BI50" s="163"/>
-      <c r="BJ50" s="163"/>
-      <c r="BK50" s="163"/>
-      <c r="BL50" s="163"/>
-      <c r="BM50" s="163"/>
-      <c r="BN50" s="163"/>
-      <c r="BO50" s="163"/>
-      <c r="BP50" s="163"/>
-      <c r="BQ50" s="163"/>
+      <c r="BC50" s="179"/>
+      <c r="BD50" s="179"/>
+      <c r="BE50" s="179"/>
+      <c r="BF50" s="179"/>
+      <c r="BG50" s="179"/>
+      <c r="BH50" s="179"/>
+      <c r="BI50" s="179"/>
+      <c r="BJ50" s="179"/>
+      <c r="BK50" s="179"/>
+      <c r="BL50" s="179"/>
+      <c r="BM50" s="179"/>
+      <c r="BN50" s="179"/>
+      <c r="BO50" s="179"/>
+      <c r="BP50" s="179"/>
+      <c r="BQ50" s="179"/>
     </row>
     <row r="51" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="158"/>
+      <c r="A51" s="182"/>
       <c r="B51" s="69">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -9382,42 +9382,42 @@
         <f>AJ50</f>
         <v>Personal Block2 Backup</v>
       </c>
-      <c r="AK51" s="139"/>
-      <c r="AL51" s="147"/>
-      <c r="AM51" s="164"/>
-      <c r="AN51" s="164"/>
-      <c r="AO51" s="164"/>
-      <c r="AP51" s="164"/>
-      <c r="AQ51" s="164"/>
-      <c r="AR51" s="164"/>
-      <c r="AS51" s="164"/>
-      <c r="AT51" s="164"/>
-      <c r="AU51" s="164"/>
-      <c r="AV51" s="164"/>
-      <c r="AW51" s="164"/>
-      <c r="AX51" s="164"/>
-      <c r="AY51" s="164"/>
-      <c r="AZ51" s="164"/>
-      <c r="BA51" s="164"/>
-      <c r="BB51" s="147"/>
-      <c r="BC51" s="164"/>
-      <c r="BD51" s="164"/>
-      <c r="BE51" s="164"/>
-      <c r="BF51" s="164"/>
-      <c r="BG51" s="164"/>
-      <c r="BH51" s="164"/>
-      <c r="BI51" s="164"/>
-      <c r="BJ51" s="164"/>
-      <c r="BK51" s="164"/>
-      <c r="BL51" s="164"/>
-      <c r="BM51" s="164"/>
-      <c r="BN51" s="164"/>
-      <c r="BO51" s="164"/>
-      <c r="BP51" s="164"/>
-      <c r="BQ51" s="164"/>
+      <c r="AK51" s="140"/>
+      <c r="AL51" s="142"/>
+      <c r="AM51" s="180"/>
+      <c r="AN51" s="180"/>
+      <c r="AO51" s="180"/>
+      <c r="AP51" s="180"/>
+      <c r="AQ51" s="180"/>
+      <c r="AR51" s="180"/>
+      <c r="AS51" s="180"/>
+      <c r="AT51" s="180"/>
+      <c r="AU51" s="180"/>
+      <c r="AV51" s="180"/>
+      <c r="AW51" s="180"/>
+      <c r="AX51" s="180"/>
+      <c r="AY51" s="180"/>
+      <c r="AZ51" s="180"/>
+      <c r="BA51" s="180"/>
+      <c r="BB51" s="142"/>
+      <c r="BC51" s="180"/>
+      <c r="BD51" s="180"/>
+      <c r="BE51" s="180"/>
+      <c r="BF51" s="180"/>
+      <c r="BG51" s="180"/>
+      <c r="BH51" s="180"/>
+      <c r="BI51" s="180"/>
+      <c r="BJ51" s="180"/>
+      <c r="BK51" s="180"/>
+      <c r="BL51" s="180"/>
+      <c r="BM51" s="180"/>
+      <c r="BN51" s="180"/>
+      <c r="BO51" s="180"/>
+      <c r="BP51" s="180"/>
+      <c r="BQ51" s="180"/>
     </row>
     <row r="52" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="158"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="69">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9525,42 +9525,42 @@
         <f>AJ51</f>
         <v>Personal Block2 Backup</v>
       </c>
-      <c r="AK52" s="139"/>
-      <c r="AL52" s="150"/>
-      <c r="AM52" s="151"/>
-      <c r="AN52" s="151"/>
-      <c r="AO52" s="151"/>
-      <c r="AP52" s="151"/>
-      <c r="AQ52" s="151"/>
-      <c r="AR52" s="151"/>
-      <c r="AS52" s="151"/>
-      <c r="AT52" s="151"/>
-      <c r="AU52" s="151"/>
-      <c r="AV52" s="151"/>
-      <c r="AW52" s="151"/>
-      <c r="AX52" s="151"/>
-      <c r="AY52" s="151"/>
-      <c r="AZ52" s="151"/>
-      <c r="BA52" s="151"/>
-      <c r="BB52" s="150"/>
-      <c r="BC52" s="151"/>
-      <c r="BD52" s="151"/>
-      <c r="BE52" s="151"/>
-      <c r="BF52" s="151"/>
-      <c r="BG52" s="151"/>
-      <c r="BH52" s="151"/>
-      <c r="BI52" s="151"/>
-      <c r="BJ52" s="151"/>
-      <c r="BK52" s="151"/>
-      <c r="BL52" s="151"/>
-      <c r="BM52" s="151"/>
-      <c r="BN52" s="151"/>
-      <c r="BO52" s="151"/>
-      <c r="BP52" s="151"/>
-      <c r="BQ52" s="151"/>
+      <c r="AK52" s="140"/>
+      <c r="AL52" s="145"/>
+      <c r="AM52" s="146"/>
+      <c r="AN52" s="146"/>
+      <c r="AO52" s="146"/>
+      <c r="AP52" s="146"/>
+      <c r="AQ52" s="146"/>
+      <c r="AR52" s="146"/>
+      <c r="AS52" s="146"/>
+      <c r="AT52" s="146"/>
+      <c r="AU52" s="146"/>
+      <c r="AV52" s="146"/>
+      <c r="AW52" s="146"/>
+      <c r="AX52" s="146"/>
+      <c r="AY52" s="146"/>
+      <c r="AZ52" s="146"/>
+      <c r="BA52" s="146"/>
+      <c r="BB52" s="145"/>
+      <c r="BC52" s="146"/>
+      <c r="BD52" s="146"/>
+      <c r="BE52" s="146"/>
+      <c r="BF52" s="146"/>
+      <c r="BG52" s="146"/>
+      <c r="BH52" s="146"/>
+      <c r="BI52" s="146"/>
+      <c r="BJ52" s="146"/>
+      <c r="BK52" s="146"/>
+      <c r="BL52" s="146"/>
+      <c r="BM52" s="146"/>
+      <c r="BN52" s="146"/>
+      <c r="BO52" s="146"/>
+      <c r="BP52" s="146"/>
+      <c r="BQ52" s="146"/>
     </row>
     <row r="53" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="158"/>
+      <c r="A53" s="182"/>
       <c r="B53" s="77">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -9667,60 +9667,60 @@
       <c r="AJ53" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK53" s="140"/>
-      <c r="AL53" s="141" t="str">
+      <c r="AK53" s="141"/>
+      <c r="AL53" s="160" t="str">
         <f>AL49</f>
         <v>Key A</v>
       </c>
-      <c r="AM53" s="142"/>
-      <c r="AN53" s="142"/>
-      <c r="AO53" s="142"/>
-      <c r="AP53" s="142"/>
-      <c r="AQ53" s="143"/>
-      <c r="AR53" s="144" t="str">
+      <c r="AM53" s="161"/>
+      <c r="AN53" s="161"/>
+      <c r="AO53" s="161"/>
+      <c r="AP53" s="161"/>
+      <c r="AQ53" s="162"/>
+      <c r="AR53" s="157" t="str">
         <f>AR49</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS53" s="145"/>
-      <c r="AT53" s="145"/>
-      <c r="AU53" s="146"/>
-      <c r="AV53" s="141" t="str">
+      <c r="AS53" s="158"/>
+      <c r="AT53" s="158"/>
+      <c r="AU53" s="159"/>
+      <c r="AV53" s="160" t="str">
         <f>AV49</f>
         <v>Key B</v>
       </c>
-      <c r="AW53" s="142"/>
-      <c r="AX53" s="142"/>
-      <c r="AY53" s="142"/>
-      <c r="AZ53" s="142"/>
-      <c r="BA53" s="143"/>
-      <c r="BB53" s="141" t="str">
+      <c r="AW53" s="161"/>
+      <c r="AX53" s="161"/>
+      <c r="AY53" s="161"/>
+      <c r="AZ53" s="161"/>
+      <c r="BA53" s="162"/>
+      <c r="BB53" s="160" t="str">
         <f>BB49</f>
         <v>Key A</v>
       </c>
-      <c r="BC53" s="142"/>
-      <c r="BD53" s="142"/>
-      <c r="BE53" s="142"/>
-      <c r="BF53" s="142"/>
-      <c r="BG53" s="143"/>
-      <c r="BH53" s="144" t="str">
+      <c r="BC53" s="161"/>
+      <c r="BD53" s="161"/>
+      <c r="BE53" s="161"/>
+      <c r="BF53" s="161"/>
+      <c r="BG53" s="162"/>
+      <c r="BH53" s="157" t="str">
         <f>BH49</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI53" s="145"/>
-      <c r="BJ53" s="145"/>
-      <c r="BK53" s="146"/>
-      <c r="BL53" s="141" t="str">
+      <c r="BI53" s="158"/>
+      <c r="BJ53" s="158"/>
+      <c r="BK53" s="159"/>
+      <c r="BL53" s="160" t="str">
         <f>BL49</f>
         <v>Key B</v>
       </c>
-      <c r="BM53" s="142"/>
-      <c r="BN53" s="142"/>
-      <c r="BO53" s="142"/>
-      <c r="BP53" s="142"/>
-      <c r="BQ53" s="143"/>
+      <c r="BM53" s="161"/>
+      <c r="BN53" s="161"/>
+      <c r="BO53" s="161"/>
+      <c r="BP53" s="161"/>
+      <c r="BQ53" s="162"/>
     </row>
     <row r="54" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="171">
+      <c r="A54" s="181">
         <v>14</v>
       </c>
       <c r="B54" s="69">
@@ -9829,51 +9829,51 @@
       <c r="AJ54" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="AK54" s="138">
+      <c r="AK54" s="139">
         <f>AK50+1</f>
         <v>3</v>
       </c>
-      <c r="AL54" s="162" t="str">
+      <c r="AL54" s="178" t="str">
         <f>AL50</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM54" s="163"/>
-      <c r="AN54" s="163"/>
-      <c r="AO54" s="163"/>
-      <c r="AP54" s="163"/>
-      <c r="AQ54" s="163"/>
-      <c r="AR54" s="163"/>
-      <c r="AS54" s="163"/>
-      <c r="AT54" s="163"/>
-      <c r="AU54" s="163"/>
-      <c r="AV54" s="163"/>
-      <c r="AW54" s="163"/>
-      <c r="AX54" s="163"/>
-      <c r="AY54" s="163"/>
-      <c r="AZ54" s="163"/>
-      <c r="BA54" s="163"/>
-      <c r="BB54" s="162" t="str">
+      <c r="AM54" s="179"/>
+      <c r="AN54" s="179"/>
+      <c r="AO54" s="179"/>
+      <c r="AP54" s="179"/>
+      <c r="AQ54" s="179"/>
+      <c r="AR54" s="179"/>
+      <c r="AS54" s="179"/>
+      <c r="AT54" s="179"/>
+      <c r="AU54" s="179"/>
+      <c r="AV54" s="179"/>
+      <c r="AW54" s="179"/>
+      <c r="AX54" s="179"/>
+      <c r="AY54" s="179"/>
+      <c r="AZ54" s="179"/>
+      <c r="BA54" s="179"/>
+      <c r="BB54" s="178" t="str">
         <f>BB50</f>
         <v>8 Bytes</v>
       </c>
-      <c r="BC54" s="163"/>
-      <c r="BD54" s="163"/>
-      <c r="BE54" s="163"/>
-      <c r="BF54" s="163"/>
-      <c r="BG54" s="163"/>
-      <c r="BH54" s="163"/>
-      <c r="BI54" s="163"/>
-      <c r="BJ54" s="163"/>
-      <c r="BK54" s="163"/>
-      <c r="BL54" s="163"/>
-      <c r="BM54" s="163"/>
-      <c r="BN54" s="163"/>
-      <c r="BO54" s="163"/>
-      <c r="BP54" s="163"/>
-      <c r="BQ54" s="163"/>
+      <c r="BC54" s="179"/>
+      <c r="BD54" s="179"/>
+      <c r="BE54" s="179"/>
+      <c r="BF54" s="179"/>
+      <c r="BG54" s="179"/>
+      <c r="BH54" s="179"/>
+      <c r="BI54" s="179"/>
+      <c r="BJ54" s="179"/>
+      <c r="BK54" s="179"/>
+      <c r="BL54" s="179"/>
+      <c r="BM54" s="179"/>
+      <c r="BN54" s="179"/>
+      <c r="BO54" s="179"/>
+      <c r="BP54" s="179"/>
+      <c r="BQ54" s="179"/>
     </row>
     <row r="55" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="171"/>
+      <c r="A55" s="181"/>
       <c r="B55" s="69">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -9981,42 +9981,42 @@
         <f>AJ54</f>
         <v>Personal Block3 Backup</v>
       </c>
-      <c r="AK55" s="139"/>
-      <c r="AL55" s="147"/>
-      <c r="AM55" s="164"/>
-      <c r="AN55" s="164"/>
-      <c r="AO55" s="164"/>
-      <c r="AP55" s="164"/>
-      <c r="AQ55" s="164"/>
-      <c r="AR55" s="164"/>
-      <c r="AS55" s="164"/>
-      <c r="AT55" s="164"/>
-      <c r="AU55" s="164"/>
-      <c r="AV55" s="164"/>
-      <c r="AW55" s="164"/>
-      <c r="AX55" s="164"/>
-      <c r="AY55" s="164"/>
-      <c r="AZ55" s="164"/>
-      <c r="BA55" s="164"/>
-      <c r="BB55" s="147"/>
-      <c r="BC55" s="164"/>
-      <c r="BD55" s="164"/>
-      <c r="BE55" s="164"/>
-      <c r="BF55" s="164"/>
-      <c r="BG55" s="164"/>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
+      <c r="AK55" s="140"/>
+      <c r="AL55" s="142"/>
+      <c r="AM55" s="180"/>
+      <c r="AN55" s="180"/>
+      <c r="AO55" s="180"/>
+      <c r="AP55" s="180"/>
+      <c r="AQ55" s="180"/>
+      <c r="AR55" s="180"/>
+      <c r="AS55" s="180"/>
+      <c r="AT55" s="180"/>
+      <c r="AU55" s="180"/>
+      <c r="AV55" s="180"/>
+      <c r="AW55" s="180"/>
+      <c r="AX55" s="180"/>
+      <c r="AY55" s="180"/>
+      <c r="AZ55" s="180"/>
+      <c r="BA55" s="180"/>
+      <c r="BB55" s="142"/>
+      <c r="BC55" s="180"/>
+      <c r="BD55" s="180"/>
+      <c r="BE55" s="180"/>
+      <c r="BF55" s="180"/>
+      <c r="BG55" s="180"/>
+      <c r="BH55" s="180"/>
+      <c r="BI55" s="180"/>
+      <c r="BJ55" s="180"/>
+      <c r="BK55" s="180"/>
+      <c r="BL55" s="180"/>
+      <c r="BM55" s="180"/>
+      <c r="BN55" s="180"/>
+      <c r="BO55" s="180"/>
+      <c r="BP55" s="180"/>
+      <c r="BQ55" s="180"/>
     </row>
     <row r="56" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="171"/>
+      <c r="A56" s="181"/>
       <c r="B56" s="69">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -10124,42 +10124,42 @@
         <f>AJ55</f>
         <v>Personal Block3 Backup</v>
       </c>
-      <c r="AK56" s="139"/>
-      <c r="AL56" s="150"/>
-      <c r="AM56" s="151"/>
-      <c r="AN56" s="151"/>
-      <c r="AO56" s="151"/>
-      <c r="AP56" s="151"/>
-      <c r="AQ56" s="151"/>
-      <c r="AR56" s="151"/>
-      <c r="AS56" s="151"/>
-      <c r="AT56" s="151"/>
-      <c r="AU56" s="151"/>
-      <c r="AV56" s="151"/>
-      <c r="AW56" s="151"/>
-      <c r="AX56" s="151"/>
-      <c r="AY56" s="151"/>
-      <c r="AZ56" s="151"/>
-      <c r="BA56" s="151"/>
-      <c r="BB56" s="150"/>
-      <c r="BC56" s="151"/>
-      <c r="BD56" s="151"/>
-      <c r="BE56" s="151"/>
-      <c r="BF56" s="151"/>
-      <c r="BG56" s="151"/>
-      <c r="BH56" s="151"/>
-      <c r="BI56" s="151"/>
-      <c r="BJ56" s="151"/>
-      <c r="BK56" s="151"/>
-      <c r="BL56" s="151"/>
-      <c r="BM56" s="151"/>
-      <c r="BN56" s="151"/>
-      <c r="BO56" s="151"/>
-      <c r="BP56" s="151"/>
-      <c r="BQ56" s="151"/>
+      <c r="AK56" s="140"/>
+      <c r="AL56" s="145"/>
+      <c r="AM56" s="146"/>
+      <c r="AN56" s="146"/>
+      <c r="AO56" s="146"/>
+      <c r="AP56" s="146"/>
+      <c r="AQ56" s="146"/>
+      <c r="AR56" s="146"/>
+      <c r="AS56" s="146"/>
+      <c r="AT56" s="146"/>
+      <c r="AU56" s="146"/>
+      <c r="AV56" s="146"/>
+      <c r="AW56" s="146"/>
+      <c r="AX56" s="146"/>
+      <c r="AY56" s="146"/>
+      <c r="AZ56" s="146"/>
+      <c r="BA56" s="146"/>
+      <c r="BB56" s="145"/>
+      <c r="BC56" s="146"/>
+      <c r="BD56" s="146"/>
+      <c r="BE56" s="146"/>
+      <c r="BF56" s="146"/>
+      <c r="BG56" s="146"/>
+      <c r="BH56" s="146"/>
+      <c r="BI56" s="146"/>
+      <c r="BJ56" s="146"/>
+      <c r="BK56" s="146"/>
+      <c r="BL56" s="146"/>
+      <c r="BM56" s="146"/>
+      <c r="BN56" s="146"/>
+      <c r="BO56" s="146"/>
+      <c r="BP56" s="146"/>
+      <c r="BQ56" s="146"/>
     </row>
     <row r="57" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="171"/>
+      <c r="A57" s="181"/>
       <c r="B57" s="77">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -10266,60 +10266,60 @@
       <c r="AJ57" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK57" s="140"/>
-      <c r="AL57" s="141" t="str">
+      <c r="AK57" s="141"/>
+      <c r="AL57" s="160" t="str">
         <f>AL53</f>
         <v>Key A</v>
       </c>
-      <c r="AM57" s="142"/>
-      <c r="AN57" s="142"/>
-      <c r="AO57" s="142"/>
-      <c r="AP57" s="142"/>
-      <c r="AQ57" s="143"/>
-      <c r="AR57" s="144" t="str">
+      <c r="AM57" s="161"/>
+      <c r="AN57" s="161"/>
+      <c r="AO57" s="161"/>
+      <c r="AP57" s="161"/>
+      <c r="AQ57" s="162"/>
+      <c r="AR57" s="157" t="str">
         <f>AR53</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS57" s="145"/>
-      <c r="AT57" s="145"/>
-      <c r="AU57" s="146"/>
-      <c r="AV57" s="141" t="str">
+      <c r="AS57" s="158"/>
+      <c r="AT57" s="158"/>
+      <c r="AU57" s="159"/>
+      <c r="AV57" s="160" t="str">
         <f>AV53</f>
         <v>Key B</v>
       </c>
-      <c r="AW57" s="142"/>
-      <c r="AX57" s="142"/>
-      <c r="AY57" s="142"/>
-      <c r="AZ57" s="142"/>
-      <c r="BA57" s="143"/>
-      <c r="BB57" s="141" t="str">
+      <c r="AW57" s="161"/>
+      <c r="AX57" s="161"/>
+      <c r="AY57" s="161"/>
+      <c r="AZ57" s="161"/>
+      <c r="BA57" s="162"/>
+      <c r="BB57" s="160" t="str">
         <f>BB53</f>
         <v>Key A</v>
       </c>
-      <c r="BC57" s="142"/>
-      <c r="BD57" s="142"/>
-      <c r="BE57" s="142"/>
-      <c r="BF57" s="142"/>
-      <c r="BG57" s="143"/>
-      <c r="BH57" s="144" t="str">
+      <c r="BC57" s="161"/>
+      <c r="BD57" s="161"/>
+      <c r="BE57" s="161"/>
+      <c r="BF57" s="161"/>
+      <c r="BG57" s="162"/>
+      <c r="BH57" s="157" t="str">
         <f>BH53</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI57" s="145"/>
-      <c r="BJ57" s="145"/>
-      <c r="BK57" s="146"/>
-      <c r="BL57" s="141" t="str">
+      <c r="BI57" s="158"/>
+      <c r="BJ57" s="158"/>
+      <c r="BK57" s="159"/>
+      <c r="BL57" s="160" t="str">
         <f>BL53</f>
         <v>Key B</v>
       </c>
-      <c r="BM57" s="142"/>
-      <c r="BN57" s="142"/>
-      <c r="BO57" s="142"/>
-      <c r="BP57" s="142"/>
-      <c r="BQ57" s="143"/>
+      <c r="BM57" s="161"/>
+      <c r="BN57" s="161"/>
+      <c r="BO57" s="161"/>
+      <c r="BP57" s="161"/>
+      <c r="BQ57" s="162"/>
     </row>
     <row r="58" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="158">
+      <c r="A58" s="182">
         <v>15</v>
       </c>
       <c r="B58" s="92">
@@ -10428,51 +10428,51 @@
       <c r="AJ58" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AK58" s="138">
+      <c r="AK58" s="139">
         <f>AK54+1</f>
         <v>4</v>
       </c>
-      <c r="AL58" s="162" t="str">
+      <c r="AL58" s="178" t="str">
         <f t="shared" ref="AL58" si="15">AL54</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM58" s="163"/>
-      <c r="AN58" s="163"/>
-      <c r="AO58" s="163"/>
-      <c r="AP58" s="163"/>
-      <c r="AQ58" s="163"/>
-      <c r="AR58" s="163"/>
-      <c r="AS58" s="163"/>
-      <c r="AT58" s="163"/>
-      <c r="AU58" s="163"/>
-      <c r="AV58" s="163"/>
-      <c r="AW58" s="163"/>
-      <c r="AX58" s="163"/>
-      <c r="AY58" s="163"/>
-      <c r="AZ58" s="163"/>
-      <c r="BA58" s="163"/>
-      <c r="BB58" s="162" t="str">
+      <c r="AM58" s="179"/>
+      <c r="AN58" s="179"/>
+      <c r="AO58" s="179"/>
+      <c r="AP58" s="179"/>
+      <c r="AQ58" s="179"/>
+      <c r="AR58" s="179"/>
+      <c r="AS58" s="179"/>
+      <c r="AT58" s="179"/>
+      <c r="AU58" s="179"/>
+      <c r="AV58" s="179"/>
+      <c r="AW58" s="179"/>
+      <c r="AX58" s="179"/>
+      <c r="AY58" s="179"/>
+      <c r="AZ58" s="179"/>
+      <c r="BA58" s="179"/>
+      <c r="BB58" s="178" t="str">
         <f t="shared" ref="BB58" si="16">BB54</f>
         <v>8 Bytes</v>
       </c>
-      <c r="BC58" s="163"/>
-      <c r="BD58" s="163"/>
-      <c r="BE58" s="163"/>
-      <c r="BF58" s="163"/>
-      <c r="BG58" s="163"/>
-      <c r="BH58" s="163"/>
-      <c r="BI58" s="163"/>
-      <c r="BJ58" s="163"/>
-      <c r="BK58" s="163"/>
-      <c r="BL58" s="163"/>
-      <c r="BM58" s="163"/>
-      <c r="BN58" s="163"/>
-      <c r="BO58" s="163"/>
-      <c r="BP58" s="163"/>
-      <c r="BQ58" s="163"/>
+      <c r="BC58" s="179"/>
+      <c r="BD58" s="179"/>
+      <c r="BE58" s="179"/>
+      <c r="BF58" s="179"/>
+      <c r="BG58" s="179"/>
+      <c r="BH58" s="179"/>
+      <c r="BI58" s="179"/>
+      <c r="BJ58" s="179"/>
+      <c r="BK58" s="179"/>
+      <c r="BL58" s="179"/>
+      <c r="BM58" s="179"/>
+      <c r="BN58" s="179"/>
+      <c r="BO58" s="179"/>
+      <c r="BP58" s="179"/>
+      <c r="BQ58" s="179"/>
     </row>
     <row r="59" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="158"/>
+      <c r="A59" s="182"/>
       <c r="B59" s="69">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -10580,42 +10580,42 @@
         <f>AJ58</f>
         <v>Personal Block4 Backup</v>
       </c>
-      <c r="AK59" s="139"/>
-      <c r="AL59" s="147"/>
-      <c r="AM59" s="164"/>
-      <c r="AN59" s="164"/>
-      <c r="AO59" s="164"/>
-      <c r="AP59" s="164"/>
-      <c r="AQ59" s="164"/>
-      <c r="AR59" s="164"/>
-      <c r="AS59" s="164"/>
-      <c r="AT59" s="164"/>
-      <c r="AU59" s="164"/>
-      <c r="AV59" s="164"/>
-      <c r="AW59" s="164"/>
-      <c r="AX59" s="164"/>
-      <c r="AY59" s="164"/>
-      <c r="AZ59" s="164"/>
-      <c r="BA59" s="164"/>
-      <c r="BB59" s="147"/>
-      <c r="BC59" s="164"/>
-      <c r="BD59" s="164"/>
-      <c r="BE59" s="164"/>
-      <c r="BF59" s="164"/>
-      <c r="BG59" s="164"/>
-      <c r="BH59" s="164"/>
-      <c r="BI59" s="164"/>
-      <c r="BJ59" s="164"/>
-      <c r="BK59" s="164"/>
-      <c r="BL59" s="164"/>
-      <c r="BM59" s="164"/>
-      <c r="BN59" s="164"/>
-      <c r="BO59" s="164"/>
-      <c r="BP59" s="164"/>
-      <c r="BQ59" s="164"/>
+      <c r="AK59" s="140"/>
+      <c r="AL59" s="142"/>
+      <c r="AM59" s="180"/>
+      <c r="AN59" s="180"/>
+      <c r="AO59" s="180"/>
+      <c r="AP59" s="180"/>
+      <c r="AQ59" s="180"/>
+      <c r="AR59" s="180"/>
+      <c r="AS59" s="180"/>
+      <c r="AT59" s="180"/>
+      <c r="AU59" s="180"/>
+      <c r="AV59" s="180"/>
+      <c r="AW59" s="180"/>
+      <c r="AX59" s="180"/>
+      <c r="AY59" s="180"/>
+      <c r="AZ59" s="180"/>
+      <c r="BA59" s="180"/>
+      <c r="BB59" s="142"/>
+      <c r="BC59" s="180"/>
+      <c r="BD59" s="180"/>
+      <c r="BE59" s="180"/>
+      <c r="BF59" s="180"/>
+      <c r="BG59" s="180"/>
+      <c r="BH59" s="180"/>
+      <c r="BI59" s="180"/>
+      <c r="BJ59" s="180"/>
+      <c r="BK59" s="180"/>
+      <c r="BL59" s="180"/>
+      <c r="BM59" s="180"/>
+      <c r="BN59" s="180"/>
+      <c r="BO59" s="180"/>
+      <c r="BP59" s="180"/>
+      <c r="BQ59" s="180"/>
     </row>
     <row r="60" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="158"/>
+      <c r="A60" s="182"/>
       <c r="B60" s="69">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -10723,42 +10723,42 @@
         <f>AJ59</f>
         <v>Personal Block4 Backup</v>
       </c>
-      <c r="AK60" s="139"/>
-      <c r="AL60" s="150"/>
-      <c r="AM60" s="151"/>
-      <c r="AN60" s="151"/>
-      <c r="AO60" s="151"/>
-      <c r="AP60" s="151"/>
-      <c r="AQ60" s="151"/>
-      <c r="AR60" s="151"/>
-      <c r="AS60" s="151"/>
-      <c r="AT60" s="151"/>
-      <c r="AU60" s="151"/>
-      <c r="AV60" s="151"/>
-      <c r="AW60" s="151"/>
-      <c r="AX60" s="151"/>
-      <c r="AY60" s="151"/>
-      <c r="AZ60" s="151"/>
-      <c r="BA60" s="151"/>
-      <c r="BB60" s="150"/>
-      <c r="BC60" s="151"/>
-      <c r="BD60" s="151"/>
-      <c r="BE60" s="151"/>
-      <c r="BF60" s="151"/>
-      <c r="BG60" s="151"/>
-      <c r="BH60" s="151"/>
-      <c r="BI60" s="151"/>
-      <c r="BJ60" s="151"/>
-      <c r="BK60" s="151"/>
-      <c r="BL60" s="151"/>
-      <c r="BM60" s="151"/>
-      <c r="BN60" s="151"/>
-      <c r="BO60" s="151"/>
-      <c r="BP60" s="151"/>
-      <c r="BQ60" s="151"/>
+      <c r="AK60" s="140"/>
+      <c r="AL60" s="145"/>
+      <c r="AM60" s="146"/>
+      <c r="AN60" s="146"/>
+      <c r="AO60" s="146"/>
+      <c r="AP60" s="146"/>
+      <c r="AQ60" s="146"/>
+      <c r="AR60" s="146"/>
+      <c r="AS60" s="146"/>
+      <c r="AT60" s="146"/>
+      <c r="AU60" s="146"/>
+      <c r="AV60" s="146"/>
+      <c r="AW60" s="146"/>
+      <c r="AX60" s="146"/>
+      <c r="AY60" s="146"/>
+      <c r="AZ60" s="146"/>
+      <c r="BA60" s="146"/>
+      <c r="BB60" s="145"/>
+      <c r="BC60" s="146"/>
+      <c r="BD60" s="146"/>
+      <c r="BE60" s="146"/>
+      <c r="BF60" s="146"/>
+      <c r="BG60" s="146"/>
+      <c r="BH60" s="146"/>
+      <c r="BI60" s="146"/>
+      <c r="BJ60" s="146"/>
+      <c r="BK60" s="146"/>
+      <c r="BL60" s="146"/>
+      <c r="BM60" s="146"/>
+      <c r="BN60" s="146"/>
+      <c r="BO60" s="146"/>
+      <c r="BP60" s="146"/>
+      <c r="BQ60" s="146"/>
     </row>
     <row r="61" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="158"/>
+      <c r="A61" s="182"/>
       <c r="B61" s="77">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -10865,60 +10865,60 @@
       <c r="AJ61" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK61" s="140"/>
-      <c r="AL61" s="141" t="str">
+      <c r="AK61" s="141"/>
+      <c r="AL61" s="160" t="str">
         <f t="shared" ref="AL61" si="17">AL57</f>
         <v>Key A</v>
       </c>
-      <c r="AM61" s="142"/>
-      <c r="AN61" s="142"/>
-      <c r="AO61" s="142"/>
-      <c r="AP61" s="142"/>
-      <c r="AQ61" s="143"/>
-      <c r="AR61" s="144" t="str">
+      <c r="AM61" s="161"/>
+      <c r="AN61" s="161"/>
+      <c r="AO61" s="161"/>
+      <c r="AP61" s="161"/>
+      <c r="AQ61" s="162"/>
+      <c r="AR61" s="157" t="str">
         <f t="shared" ref="AR61" si="18">AR57</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS61" s="145"/>
-      <c r="AT61" s="145"/>
-      <c r="AU61" s="146"/>
-      <c r="AV61" s="141" t="str">
+      <c r="AS61" s="158"/>
+      <c r="AT61" s="158"/>
+      <c r="AU61" s="159"/>
+      <c r="AV61" s="160" t="str">
         <f t="shared" ref="AV61" si="19">AV57</f>
         <v>Key B</v>
       </c>
-      <c r="AW61" s="142"/>
-      <c r="AX61" s="142"/>
-      <c r="AY61" s="142"/>
-      <c r="AZ61" s="142"/>
-      <c r="BA61" s="143"/>
-      <c r="BB61" s="141" t="str">
+      <c r="AW61" s="161"/>
+      <c r="AX61" s="161"/>
+      <c r="AY61" s="161"/>
+      <c r="AZ61" s="161"/>
+      <c r="BA61" s="162"/>
+      <c r="BB61" s="160" t="str">
         <f t="shared" ref="BB61" si="20">BB57</f>
         <v>Key A</v>
       </c>
-      <c r="BC61" s="142"/>
-      <c r="BD61" s="142"/>
-      <c r="BE61" s="142"/>
-      <c r="BF61" s="142"/>
-      <c r="BG61" s="143"/>
-      <c r="BH61" s="144" t="str">
+      <c r="BC61" s="161"/>
+      <c r="BD61" s="161"/>
+      <c r="BE61" s="161"/>
+      <c r="BF61" s="161"/>
+      <c r="BG61" s="162"/>
+      <c r="BH61" s="157" t="str">
         <f t="shared" ref="BH61" si="21">BH57</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI61" s="145"/>
-      <c r="BJ61" s="145"/>
-      <c r="BK61" s="146"/>
-      <c r="BL61" s="141" t="str">
+      <c r="BI61" s="158"/>
+      <c r="BJ61" s="158"/>
+      <c r="BK61" s="159"/>
+      <c r="BL61" s="160" t="str">
         <f t="shared" ref="BL61" si="22">BL57</f>
         <v>Key B</v>
       </c>
-      <c r="BM61" s="142"/>
-      <c r="BN61" s="142"/>
-      <c r="BO61" s="142"/>
-      <c r="BP61" s="142"/>
-      <c r="BQ61" s="143"/>
+      <c r="BM61" s="161"/>
+      <c r="BN61" s="161"/>
+      <c r="BO61" s="161"/>
+      <c r="BP61" s="161"/>
+      <c r="BQ61" s="162"/>
     </row>
     <row r="62" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="171">
+      <c r="A62" s="181">
         <v>16</v>
       </c>
       <c r="B62" s="98">
@@ -11030,45 +11030,45 @@
       <c r="AK62" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="AL62" s="220" t="s">
+      <c r="AL62" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="AM62" s="221"/>
-      <c r="AN62" s="221"/>
-      <c r="AO62" s="221"/>
-      <c r="AP62" s="221"/>
-      <c r="AQ62" s="221"/>
-      <c r="AR62" s="221"/>
-      <c r="AS62" s="221"/>
-      <c r="AT62" s="221"/>
-      <c r="AU62" s="221"/>
-      <c r="AV62" s="221"/>
-      <c r="AW62" s="221"/>
-      <c r="AX62" s="221"/>
-      <c r="AY62" s="221"/>
-      <c r="AZ62" s="221"/>
-      <c r="BA62" s="222"/>
-      <c r="BB62" s="220" t="s">
+      <c r="AM62" s="149"/>
+      <c r="AN62" s="149"/>
+      <c r="AO62" s="149"/>
+      <c r="AP62" s="149"/>
+      <c r="AQ62" s="149"/>
+      <c r="AR62" s="149"/>
+      <c r="AS62" s="149"/>
+      <c r="AT62" s="149"/>
+      <c r="AU62" s="149"/>
+      <c r="AV62" s="149"/>
+      <c r="AW62" s="149"/>
+      <c r="AX62" s="149"/>
+      <c r="AY62" s="149"/>
+      <c r="AZ62" s="149"/>
+      <c r="BA62" s="150"/>
+      <c r="BB62" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="BC62" s="221"/>
-      <c r="BD62" s="221"/>
-      <c r="BE62" s="221"/>
-      <c r="BF62" s="221"/>
-      <c r="BG62" s="221"/>
-      <c r="BH62" s="221"/>
-      <c r="BI62" s="221"/>
-      <c r="BJ62" s="221"/>
-      <c r="BK62" s="221"/>
-      <c r="BL62" s="221"/>
-      <c r="BM62" s="221"/>
-      <c r="BN62" s="221"/>
-      <c r="BO62" s="221"/>
-      <c r="BP62" s="221"/>
-      <c r="BQ62" s="222"/>
+      <c r="BC62" s="149"/>
+      <c r="BD62" s="149"/>
+      <c r="BE62" s="149"/>
+      <c r="BF62" s="149"/>
+      <c r="BG62" s="149"/>
+      <c r="BH62" s="149"/>
+      <c r="BI62" s="149"/>
+      <c r="BJ62" s="149"/>
+      <c r="BK62" s="149"/>
+      <c r="BL62" s="149"/>
+      <c r="BM62" s="149"/>
+      <c r="BN62" s="149"/>
+      <c r="BO62" s="149"/>
+      <c r="BP62" s="149"/>
+      <c r="BQ62" s="150"/>
     </row>
     <row r="63" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="171"/>
+      <c r="A63" s="181"/>
       <c r="B63" s="69">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -11176,50 +11176,50 @@
         <f>AJ62</f>
         <v>Personal Block5 Backup</v>
       </c>
-      <c r="AK63" s="138">
+      <c r="AK63" s="139">
         <v>5</v>
       </c>
-      <c r="AL63" s="147" t="str">
+      <c r="AL63" s="142" t="str">
         <f>AL58</f>
         <v>User's personal information(Json)</v>
       </c>
-      <c r="AM63" s="148"/>
-      <c r="AN63" s="148"/>
-      <c r="AO63" s="148"/>
-      <c r="AP63" s="148"/>
-      <c r="AQ63" s="148"/>
-      <c r="AR63" s="148"/>
-      <c r="AS63" s="148"/>
-      <c r="AT63" s="148"/>
-      <c r="AU63" s="148"/>
-      <c r="AV63" s="148"/>
-      <c r="AW63" s="148"/>
-      <c r="AX63" s="148"/>
-      <c r="AY63" s="148"/>
-      <c r="AZ63" s="148"/>
-      <c r="BA63" s="149"/>
-      <c r="BB63" s="147" t="str">
+      <c r="AM63" s="143"/>
+      <c r="AN63" s="143"/>
+      <c r="AO63" s="143"/>
+      <c r="AP63" s="143"/>
+      <c r="AQ63" s="143"/>
+      <c r="AR63" s="143"/>
+      <c r="AS63" s="143"/>
+      <c r="AT63" s="143"/>
+      <c r="AU63" s="143"/>
+      <c r="AV63" s="143"/>
+      <c r="AW63" s="143"/>
+      <c r="AX63" s="143"/>
+      <c r="AY63" s="143"/>
+      <c r="AZ63" s="143"/>
+      <c r="BA63" s="144"/>
+      <c r="BB63" s="142" t="str">
         <f>BB3</f>
         <v>32 Bytes</v>
       </c>
-      <c r="BC63" s="148"/>
-      <c r="BD63" s="148"/>
-      <c r="BE63" s="148"/>
-      <c r="BF63" s="148"/>
-      <c r="BG63" s="148"/>
-      <c r="BH63" s="148"/>
-      <c r="BI63" s="148"/>
-      <c r="BJ63" s="148"/>
-      <c r="BK63" s="148"/>
-      <c r="BL63" s="148"/>
-      <c r="BM63" s="148"/>
-      <c r="BN63" s="148"/>
-      <c r="BO63" s="148"/>
-      <c r="BP63" s="148"/>
-      <c r="BQ63" s="149"/>
+      <c r="BC63" s="143"/>
+      <c r="BD63" s="143"/>
+      <c r="BE63" s="143"/>
+      <c r="BF63" s="143"/>
+      <c r="BG63" s="143"/>
+      <c r="BH63" s="143"/>
+      <c r="BI63" s="143"/>
+      <c r="BJ63" s="143"/>
+      <c r="BK63" s="143"/>
+      <c r="BL63" s="143"/>
+      <c r="BM63" s="143"/>
+      <c r="BN63" s="143"/>
+      <c r="BO63" s="143"/>
+      <c r="BP63" s="143"/>
+      <c r="BQ63" s="144"/>
     </row>
     <row r="64" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="171"/>
+      <c r="A64" s="181"/>
       <c r="B64" s="69">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -11327,42 +11327,42 @@
         <f>AJ63</f>
         <v>Personal Block5 Backup</v>
       </c>
-      <c r="AK64" s="139"/>
-      <c r="AL64" s="150"/>
-      <c r="AM64" s="151"/>
-      <c r="AN64" s="151"/>
-      <c r="AO64" s="151"/>
-      <c r="AP64" s="151"/>
-      <c r="AQ64" s="151"/>
-      <c r="AR64" s="151"/>
-      <c r="AS64" s="151"/>
-      <c r="AT64" s="151"/>
-      <c r="AU64" s="151"/>
-      <c r="AV64" s="151"/>
-      <c r="AW64" s="151"/>
-      <c r="AX64" s="151"/>
-      <c r="AY64" s="151"/>
-      <c r="AZ64" s="151"/>
-      <c r="BA64" s="152"/>
-      <c r="BB64" s="150"/>
-      <c r="BC64" s="151"/>
-      <c r="BD64" s="151"/>
-      <c r="BE64" s="151"/>
-      <c r="BF64" s="151"/>
-      <c r="BG64" s="151"/>
-      <c r="BH64" s="151"/>
-      <c r="BI64" s="151"/>
-      <c r="BJ64" s="151"/>
-      <c r="BK64" s="151"/>
-      <c r="BL64" s="151"/>
-      <c r="BM64" s="151"/>
-      <c r="BN64" s="151"/>
-      <c r="BO64" s="151"/>
-      <c r="BP64" s="151"/>
-      <c r="BQ64" s="152"/>
+      <c r="AK64" s="140"/>
+      <c r="AL64" s="145"/>
+      <c r="AM64" s="146"/>
+      <c r="AN64" s="146"/>
+      <c r="AO64" s="146"/>
+      <c r="AP64" s="146"/>
+      <c r="AQ64" s="146"/>
+      <c r="AR64" s="146"/>
+      <c r="AS64" s="146"/>
+      <c r="AT64" s="146"/>
+      <c r="AU64" s="146"/>
+      <c r="AV64" s="146"/>
+      <c r="AW64" s="146"/>
+      <c r="AX64" s="146"/>
+      <c r="AY64" s="146"/>
+      <c r="AZ64" s="146"/>
+      <c r="BA64" s="147"/>
+      <c r="BB64" s="145"/>
+      <c r="BC64" s="146"/>
+      <c r="BD64" s="146"/>
+      <c r="BE64" s="146"/>
+      <c r="BF64" s="146"/>
+      <c r="BG64" s="146"/>
+      <c r="BH64" s="146"/>
+      <c r="BI64" s="146"/>
+      <c r="BJ64" s="146"/>
+      <c r="BK64" s="146"/>
+      <c r="BL64" s="146"/>
+      <c r="BM64" s="146"/>
+      <c r="BN64" s="146"/>
+      <c r="BO64" s="146"/>
+      <c r="BP64" s="146"/>
+      <c r="BQ64" s="147"/>
     </row>
     <row r="65" spans="1:69" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="171"/>
+      <c r="A65" s="181"/>
       <c r="B65" s="77">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -11469,143 +11469,296 @@
       <c r="AJ65" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AK65" s="140"/>
-      <c r="AL65" s="141" t="str">
+      <c r="AK65" s="141"/>
+      <c r="AL65" s="160" t="str">
         <f t="shared" ref="AL65" si="23">AL61</f>
         <v>Key A</v>
       </c>
-      <c r="AM65" s="142"/>
-      <c r="AN65" s="142"/>
-      <c r="AO65" s="142"/>
-      <c r="AP65" s="142"/>
-      <c r="AQ65" s="143"/>
-      <c r="AR65" s="144" t="str">
+      <c r="AM65" s="161"/>
+      <c r="AN65" s="161"/>
+      <c r="AO65" s="161"/>
+      <c r="AP65" s="161"/>
+      <c r="AQ65" s="162"/>
+      <c r="AR65" s="157" t="str">
         <f t="shared" ref="AR65" si="24">AR61</f>
         <v>Acces Bits</v>
       </c>
-      <c r="AS65" s="145"/>
-      <c r="AT65" s="145"/>
-      <c r="AU65" s="146"/>
-      <c r="AV65" s="141" t="str">
+      <c r="AS65" s="158"/>
+      <c r="AT65" s="158"/>
+      <c r="AU65" s="159"/>
+      <c r="AV65" s="160" t="str">
         <f t="shared" ref="AV65" si="25">AV61</f>
         <v>Key B</v>
       </c>
-      <c r="AW65" s="142"/>
-      <c r="AX65" s="142"/>
-      <c r="AY65" s="142"/>
-      <c r="AZ65" s="142"/>
-      <c r="BA65" s="143"/>
-      <c r="BB65" s="141" t="str">
+      <c r="AW65" s="161"/>
+      <c r="AX65" s="161"/>
+      <c r="AY65" s="161"/>
+      <c r="AZ65" s="161"/>
+      <c r="BA65" s="162"/>
+      <c r="BB65" s="160" t="str">
         <f t="shared" ref="BB65" si="26">BB61</f>
         <v>Key A</v>
       </c>
-      <c r="BC65" s="142"/>
-      <c r="BD65" s="142"/>
-      <c r="BE65" s="142"/>
-      <c r="BF65" s="142"/>
-      <c r="BG65" s="143"/>
-      <c r="BH65" s="144" t="str">
+      <c r="BC65" s="161"/>
+      <c r="BD65" s="161"/>
+      <c r="BE65" s="161"/>
+      <c r="BF65" s="161"/>
+      <c r="BG65" s="162"/>
+      <c r="BH65" s="157" t="str">
         <f t="shared" ref="BH65" si="27">BH61</f>
         <v>Acces Bits</v>
       </c>
-      <c r="BI65" s="145"/>
-      <c r="BJ65" s="145"/>
-      <c r="BK65" s="146"/>
-      <c r="BL65" s="141" t="str">
+      <c r="BI65" s="158"/>
+      <c r="BJ65" s="158"/>
+      <c r="BK65" s="159"/>
+      <c r="BL65" s="160" t="str">
         <f t="shared" ref="BL65" si="28">BL61</f>
         <v>Key B</v>
       </c>
-      <c r="BM65" s="142"/>
-      <c r="BN65" s="142"/>
-      <c r="BO65" s="142"/>
-      <c r="BP65" s="142"/>
-      <c r="BQ65" s="143"/>
+      <c r="BM65" s="161"/>
+      <c r="BN65" s="161"/>
+      <c r="BO65" s="161"/>
+      <c r="BP65" s="161"/>
+      <c r="BQ65" s="162"/>
     </row>
     <row r="67" spans="1:69" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="219" t="s">
+      <c r="B67" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="219"/>
-      <c r="D67" s="219"/>
-      <c r="E67" s="219"/>
-      <c r="F67" s="219"/>
-      <c r="G67" s="219"/>
-      <c r="H67" s="219"/>
-      <c r="I67" s="219"/>
-      <c r="J67" s="219"/>
-      <c r="K67" s="219"/>
-      <c r="L67" s="219"/>
-      <c r="M67" s="219"/>
-      <c r="N67" s="219"/>
-      <c r="O67" s="219"/>
-      <c r="P67" s="219"/>
-      <c r="Q67" s="219"/>
-      <c r="R67" s="219"/>
-      <c r="S67" s="219"/>
-      <c r="T67" s="219"/>
-      <c r="U67" s="219"/>
-      <c r="V67" s="219"/>
-      <c r="W67" s="219"/>
-      <c r="X67" s="219"/>
-      <c r="Y67" s="219"/>
-      <c r="Z67" s="219"/>
-      <c r="AA67" s="219"/>
-      <c r="AB67" s="219"/>
-      <c r="AC67" s="219"/>
-      <c r="AD67" s="219"/>
-      <c r="AE67" s="219"/>
-      <c r="AF67" s="219"/>
-      <c r="AG67" s="219"/>
-      <c r="AH67" s="219"/>
-      <c r="AI67" s="219"/>
-      <c r="AJ67" s="219"/>
-      <c r="AK67" s="219"/>
-      <c r="AL67" s="219"/>
-      <c r="AM67" s="219"/>
-      <c r="AN67" s="219"/>
-      <c r="AO67" s="219"/>
-      <c r="AP67" s="219"/>
-      <c r="AQ67" s="219"/>
-      <c r="AR67" s="219"/>
-      <c r="AS67" s="219"/>
-      <c r="AT67" s="219"/>
-      <c r="AU67" s="219"/>
-      <c r="AV67" s="219"/>
-      <c r="AW67" s="219"/>
-      <c r="AX67" s="219"/>
-      <c r="AY67" s="219"/>
-      <c r="AZ67" s="219"/>
-      <c r="BA67" s="219"/>
-      <c r="BB67" s="219"/>
-      <c r="BC67" s="219"/>
-      <c r="BD67" s="219"/>
-      <c r="BE67" s="219"/>
-      <c r="BF67" s="219"/>
-      <c r="BG67" s="219"/>
-      <c r="BH67" s="219"/>
-      <c r="BI67" s="219"/>
-      <c r="BJ67" s="219"/>
-      <c r="BK67" s="219"/>
-      <c r="BL67" s="219"/>
-      <c r="BM67" s="219"/>
-      <c r="BN67" s="219"/>
-      <c r="BO67" s="219"/>
-      <c r="BP67" s="219"/>
-      <c r="BQ67" s="219"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
+      <c r="M67" s="126"/>
+      <c r="N67" s="126"/>
+      <c r="O67" s="126"/>
+      <c r="P67" s="126"/>
+      <c r="Q67" s="126"/>
+      <c r="R67" s="126"/>
+      <c r="S67" s="126"/>
+      <c r="T67" s="126"/>
+      <c r="U67" s="126"/>
+      <c r="V67" s="126"/>
+      <c r="W67" s="126"/>
+      <c r="X67" s="126"/>
+      <c r="Y67" s="126"/>
+      <c r="Z67" s="126"/>
+      <c r="AA67" s="126"/>
+      <c r="AB67" s="126"/>
+      <c r="AC67" s="126"/>
+      <c r="AD67" s="126"/>
+      <c r="AE67" s="126"/>
+      <c r="AF67" s="126"/>
+      <c r="AG67" s="126"/>
+      <c r="AH67" s="126"/>
+      <c r="AI67" s="126"/>
+      <c r="AJ67" s="126"/>
+      <c r="AK67" s="126"/>
+      <c r="AL67" s="126"/>
+      <c r="AM67" s="126"/>
+      <c r="AN67" s="126"/>
+      <c r="AO67" s="126"/>
+      <c r="AP67" s="126"/>
+      <c r="AQ67" s="126"/>
+      <c r="AR67" s="126"/>
+      <c r="AS67" s="126"/>
+      <c r="AT67" s="126"/>
+      <c r="AU67" s="126"/>
+      <c r="AV67" s="126"/>
+      <c r="AW67" s="126"/>
+      <c r="AX67" s="126"/>
+      <c r="AY67" s="126"/>
+      <c r="AZ67" s="126"/>
+      <c r="BA67" s="126"/>
+      <c r="BB67" s="126"/>
+      <c r="BC67" s="126"/>
+      <c r="BD67" s="126"/>
+      <c r="BE67" s="126"/>
+      <c r="BF67" s="126"/>
+      <c r="BG67" s="126"/>
+      <c r="BH67" s="126"/>
+      <c r="BI67" s="126"/>
+      <c r="BJ67" s="126"/>
+      <c r="BK67" s="126"/>
+      <c r="BL67" s="126"/>
+      <c r="BM67" s="126"/>
+      <c r="BN67" s="126"/>
+      <c r="BO67" s="126"/>
+      <c r="BP67" s="126"/>
+      <c r="BQ67" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="AO38:AU38"/>
-    <mergeCell ref="AV38:BA38"/>
-    <mergeCell ref="BB38:BD38"/>
-    <mergeCell ref="BE38:BK38"/>
-    <mergeCell ref="BL38:BQ38"/>
-    <mergeCell ref="AL39:BA40"/>
-    <mergeCell ref="BB39:BQ40"/>
-    <mergeCell ref="B67:BQ67"/>
-    <mergeCell ref="AT14:BA14"/>
-    <mergeCell ref="BB15:BQ16"/>
-    <mergeCell ref="BJ14:BQ14"/>
+    <mergeCell ref="AL11:BA12"/>
+    <mergeCell ref="AV10:BA10"/>
+    <mergeCell ref="BI7:BQ7"/>
+    <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="BB5:BG5"/>
+    <mergeCell ref="BH5:BK5"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="AL3:BA4"/>
+    <mergeCell ref="BB3:BQ4"/>
+    <mergeCell ref="AL7:AR7"/>
+    <mergeCell ref="BJ42:BQ42"/>
+    <mergeCell ref="BB11:BQ12"/>
+    <mergeCell ref="BL10:BQ10"/>
+    <mergeCell ref="AL36:BA36"/>
+    <mergeCell ref="AS35:BA35"/>
+    <mergeCell ref="BB36:BQ36"/>
+    <mergeCell ref="BI35:BQ35"/>
+    <mergeCell ref="AL33:AQ33"/>
+    <mergeCell ref="AL13:AQ13"/>
+    <mergeCell ref="AR13:AU13"/>
+    <mergeCell ref="AV13:BA13"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AL22:BA24"/>
+    <mergeCell ref="AL25:AQ25"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:BA25"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="AV5:BA5"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="AK18:AK21"/>
+    <mergeCell ref="BB18:BQ20"/>
+    <mergeCell ref="BB13:BG13"/>
+    <mergeCell ref="BH13:BK13"/>
+    <mergeCell ref="BL13:BQ13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="BB9:BG9"/>
+    <mergeCell ref="BH9:BK9"/>
+    <mergeCell ref="BL9:BQ9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="AK10:AK13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="AK6:AK9"/>
+    <mergeCell ref="BB6:BI6"/>
+    <mergeCell ref="BJ6:BQ6"/>
+    <mergeCell ref="AL6:AS6"/>
+    <mergeCell ref="AT6:BA6"/>
+    <mergeCell ref="BB21:BG21"/>
+    <mergeCell ref="BH21:BK21"/>
+    <mergeCell ref="BL21:BQ21"/>
+    <mergeCell ref="AL14:AS14"/>
+    <mergeCell ref="AL15:BA16"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="AK30:AK33"/>
+    <mergeCell ref="BB30:BQ32"/>
+    <mergeCell ref="BB25:BG25"/>
+    <mergeCell ref="BH25:BK25"/>
+    <mergeCell ref="BL25:BQ25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="AK26:AK29"/>
+    <mergeCell ref="BB26:BQ28"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="AK22:AK25"/>
+    <mergeCell ref="BB22:BQ24"/>
+    <mergeCell ref="BB33:BG33"/>
+    <mergeCell ref="BH33:BK33"/>
+    <mergeCell ref="BL33:BQ33"/>
+    <mergeCell ref="BB29:BG29"/>
+    <mergeCell ref="BH29:BK29"/>
+    <mergeCell ref="BL29:BQ29"/>
+    <mergeCell ref="AL26:BA28"/>
+    <mergeCell ref="AL29:AQ29"/>
+    <mergeCell ref="AR29:AU29"/>
+    <mergeCell ref="AV29:BA29"/>
+    <mergeCell ref="AL30:BA32"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="AK42:AK45"/>
+    <mergeCell ref="BB45:BG45"/>
+    <mergeCell ref="BH45:BK45"/>
+    <mergeCell ref="BL45:BQ45"/>
+    <mergeCell ref="BL37:BQ37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="AK38:AK41"/>
+    <mergeCell ref="BB41:BG41"/>
+    <mergeCell ref="BH41:BK41"/>
+    <mergeCell ref="BL41:BQ41"/>
+    <mergeCell ref="BB37:BG37"/>
+    <mergeCell ref="BH37:BK37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="AK34:AK37"/>
+    <mergeCell ref="BB34:BI34"/>
+    <mergeCell ref="BJ34:BQ34"/>
+    <mergeCell ref="AR41:AU41"/>
+    <mergeCell ref="AV41:BA41"/>
+    <mergeCell ref="AL35:AR35"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="AL42:AS42"/>
+    <mergeCell ref="AT42:BA42"/>
+    <mergeCell ref="BB42:BI42"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="AK50:AK53"/>
+    <mergeCell ref="BB50:BQ52"/>
+    <mergeCell ref="BB53:BG53"/>
+    <mergeCell ref="BH53:BK53"/>
+    <mergeCell ref="BL53:BQ53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="AK46:AK49"/>
+    <mergeCell ref="BB46:BQ48"/>
+    <mergeCell ref="BB49:BG49"/>
+    <mergeCell ref="BH49:BK49"/>
+    <mergeCell ref="BL49:BQ49"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="BB65:BG65"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="AK58:AK61"/>
+    <mergeCell ref="BB58:BQ60"/>
+    <mergeCell ref="BB61:BG61"/>
+    <mergeCell ref="BH61:BK61"/>
+    <mergeCell ref="BL61:BQ61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="AK54:AK57"/>
+    <mergeCell ref="BB54:BQ56"/>
+    <mergeCell ref="BB57:BG57"/>
+    <mergeCell ref="BH57:BK57"/>
+    <mergeCell ref="BL57:BQ57"/>
+    <mergeCell ref="BH65:BK65"/>
+    <mergeCell ref="BL65:BQ65"/>
+    <mergeCell ref="AL61:AQ61"/>
+    <mergeCell ref="AR61:AU61"/>
+    <mergeCell ref="AV61:BA61"/>
+    <mergeCell ref="AL65:AQ65"/>
+    <mergeCell ref="AR65:AU65"/>
+    <mergeCell ref="AV65:BA65"/>
+    <mergeCell ref="BB7:BH7"/>
+    <mergeCell ref="BB35:BH35"/>
+    <mergeCell ref="BH17:BK17"/>
+    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="AL58:BA60"/>
+    <mergeCell ref="AL50:BA52"/>
+    <mergeCell ref="AL53:AQ53"/>
+    <mergeCell ref="AR53:AU53"/>
+    <mergeCell ref="AV53:BA53"/>
+    <mergeCell ref="AL54:BA56"/>
+    <mergeCell ref="AL57:AQ57"/>
+    <mergeCell ref="AR57:AU57"/>
+    <mergeCell ref="AV57:BA57"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AU45"/>
+    <mergeCell ref="AV45:BA45"/>
+    <mergeCell ref="AL46:BA48"/>
+    <mergeCell ref="AL49:AQ49"/>
+    <mergeCell ref="AR9:AU9"/>
+    <mergeCell ref="AV9:BA9"/>
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AS7:BA7"/>
+    <mergeCell ref="AL8:BA8"/>
+    <mergeCell ref="BB8:BQ8"/>
     <mergeCell ref="AO10:AU10"/>
     <mergeCell ref="BE10:BK10"/>
     <mergeCell ref="BB10:BD10"/>
@@ -11630,176 +11783,23 @@
     <mergeCell ref="AV33:BA33"/>
     <mergeCell ref="AL34:AS34"/>
     <mergeCell ref="AT34:BA34"/>
-    <mergeCell ref="BB7:BH7"/>
-    <mergeCell ref="BB35:BH35"/>
-    <mergeCell ref="BH17:BK17"/>
-    <mergeCell ref="BB14:BI14"/>
-    <mergeCell ref="AL58:BA60"/>
-    <mergeCell ref="AL50:BA52"/>
-    <mergeCell ref="AL53:AQ53"/>
-    <mergeCell ref="AR53:AU53"/>
-    <mergeCell ref="AV53:BA53"/>
-    <mergeCell ref="AL54:BA56"/>
-    <mergeCell ref="AL57:AQ57"/>
-    <mergeCell ref="AR57:AU57"/>
-    <mergeCell ref="AV57:BA57"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AU45"/>
-    <mergeCell ref="AV45:BA45"/>
-    <mergeCell ref="AL46:BA48"/>
-    <mergeCell ref="AL49:AQ49"/>
-    <mergeCell ref="AR9:AU9"/>
-    <mergeCell ref="AV9:BA9"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="BB65:BG65"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="AK58:AK61"/>
-    <mergeCell ref="BB58:BQ60"/>
-    <mergeCell ref="BB61:BG61"/>
-    <mergeCell ref="BH61:BK61"/>
-    <mergeCell ref="BL61:BQ61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="AK54:AK57"/>
-    <mergeCell ref="BB54:BQ56"/>
-    <mergeCell ref="BB57:BG57"/>
-    <mergeCell ref="BH57:BK57"/>
-    <mergeCell ref="BL57:BQ57"/>
-    <mergeCell ref="BH65:BK65"/>
-    <mergeCell ref="BL65:BQ65"/>
-    <mergeCell ref="AL61:AQ61"/>
-    <mergeCell ref="AR61:AU61"/>
-    <mergeCell ref="AV61:BA61"/>
-    <mergeCell ref="AL65:AQ65"/>
-    <mergeCell ref="AR65:AU65"/>
-    <mergeCell ref="AV65:BA65"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="AK50:AK53"/>
-    <mergeCell ref="BB50:BQ52"/>
-    <mergeCell ref="BB53:BG53"/>
-    <mergeCell ref="BH53:BK53"/>
-    <mergeCell ref="BL53:BQ53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="AK46:AK49"/>
-    <mergeCell ref="BB46:BQ48"/>
-    <mergeCell ref="BB49:BG49"/>
-    <mergeCell ref="BH49:BK49"/>
-    <mergeCell ref="BL49:BQ49"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="AK42:AK45"/>
-    <mergeCell ref="BB45:BG45"/>
-    <mergeCell ref="BH45:BK45"/>
-    <mergeCell ref="BL45:BQ45"/>
-    <mergeCell ref="BL37:BQ37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="AK38:AK41"/>
-    <mergeCell ref="BB41:BG41"/>
-    <mergeCell ref="BH41:BK41"/>
-    <mergeCell ref="BL41:BQ41"/>
-    <mergeCell ref="BB37:BG37"/>
-    <mergeCell ref="BH37:BK37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="AK34:AK37"/>
-    <mergeCell ref="BB34:BI34"/>
-    <mergeCell ref="BJ34:BQ34"/>
-    <mergeCell ref="AR41:AU41"/>
-    <mergeCell ref="AV41:BA41"/>
-    <mergeCell ref="AL35:AR35"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="AL42:AS42"/>
-    <mergeCell ref="AT42:BA42"/>
-    <mergeCell ref="BB42:BI42"/>
-    <mergeCell ref="AL9:AQ9"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="AK30:AK33"/>
-    <mergeCell ref="BB30:BQ32"/>
-    <mergeCell ref="BB25:BG25"/>
-    <mergeCell ref="BH25:BK25"/>
-    <mergeCell ref="BL25:BQ25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="AK26:AK29"/>
-    <mergeCell ref="BB26:BQ28"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="AK22:AK25"/>
-    <mergeCell ref="BB22:BQ24"/>
-    <mergeCell ref="BB33:BG33"/>
-    <mergeCell ref="BH33:BK33"/>
-    <mergeCell ref="BL33:BQ33"/>
-    <mergeCell ref="BB29:BG29"/>
-    <mergeCell ref="BH29:BK29"/>
-    <mergeCell ref="BL29:BQ29"/>
-    <mergeCell ref="AL26:BA28"/>
-    <mergeCell ref="AL29:AQ29"/>
-    <mergeCell ref="AR29:AU29"/>
-    <mergeCell ref="AV29:BA29"/>
-    <mergeCell ref="AL30:BA32"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="AK18:AK21"/>
-    <mergeCell ref="BB18:BQ20"/>
-    <mergeCell ref="BB13:BG13"/>
-    <mergeCell ref="BH13:BK13"/>
-    <mergeCell ref="BL13:BQ13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="BB9:BG9"/>
-    <mergeCell ref="BH9:BK9"/>
-    <mergeCell ref="BL9:BQ9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="AK10:AK13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="AK6:AK9"/>
-    <mergeCell ref="BB6:BI6"/>
-    <mergeCell ref="BJ6:BQ6"/>
-    <mergeCell ref="AL6:AS6"/>
-    <mergeCell ref="AT6:BA6"/>
-    <mergeCell ref="BB21:BG21"/>
-    <mergeCell ref="BH21:BK21"/>
-    <mergeCell ref="BL21:BQ21"/>
-    <mergeCell ref="AL14:AS14"/>
-    <mergeCell ref="AL15:BA16"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AU5"/>
-    <mergeCell ref="AV5:BA5"/>
-    <mergeCell ref="AS7:BA7"/>
-    <mergeCell ref="AL8:BA8"/>
-    <mergeCell ref="BB8:BQ8"/>
-    <mergeCell ref="BI7:BQ7"/>
-    <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="BB5:BG5"/>
-    <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="AL3:BA4"/>
-    <mergeCell ref="BB3:BQ4"/>
-    <mergeCell ref="AL7:AR7"/>
-    <mergeCell ref="BJ42:BQ42"/>
+    <mergeCell ref="AO38:AU38"/>
+    <mergeCell ref="AV38:BA38"/>
+    <mergeCell ref="BB38:BD38"/>
+    <mergeCell ref="BE38:BK38"/>
+    <mergeCell ref="BL38:BQ38"/>
+    <mergeCell ref="AL39:BA40"/>
+    <mergeCell ref="BB39:BQ40"/>
+    <mergeCell ref="B67:BQ67"/>
+    <mergeCell ref="AT14:BA14"/>
+    <mergeCell ref="BB15:BQ16"/>
+    <mergeCell ref="BJ14:BQ14"/>
     <mergeCell ref="AL43:BA44"/>
     <mergeCell ref="BB43:BQ44"/>
-    <mergeCell ref="BB11:BQ12"/>
-    <mergeCell ref="BL10:BQ10"/>
-    <mergeCell ref="AL36:BA36"/>
-    <mergeCell ref="AS35:BA35"/>
-    <mergeCell ref="BB36:BQ36"/>
-    <mergeCell ref="BI35:BQ35"/>
-    <mergeCell ref="AL33:AQ33"/>
-    <mergeCell ref="AL13:AQ13"/>
-    <mergeCell ref="AR13:AU13"/>
-    <mergeCell ref="AV13:BA13"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AL22:BA24"/>
-    <mergeCell ref="AL25:AQ25"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:BA25"/>
     <mergeCell ref="AL18:BA20"/>
     <mergeCell ref="AL21:AQ21"/>
     <mergeCell ref="AR21:AU21"/>
     <mergeCell ref="AV21:BA21"/>
-    <mergeCell ref="AL11:BA12"/>
-    <mergeCell ref="AV10:BA10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
